--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F9B96F-E47C-41AE-B6B9-2964A677F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F097F0-8410-45DC-BD2F-F78219C0C736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="261">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,6 +1069,18 @@
   </si>
   <si>
     <t>압축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n진수 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 배낭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6417,19 +6429,64 @@
       <c r="A213" s="3">
         <v>212</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G213" s="4">
+        <v>44371</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="3">
         <v>213</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G214" s="4">
+        <v>44371</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="3">
         <v>214</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="B215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2</v>
+      </c>
+      <c r="E215" s="3">
+        <v>12865</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G215" s="4">
+        <v>44371</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F097F0-8410-45DC-BD2F-F78219C0C736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A8546E-2114-4D20-8451-D65ED7023114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="265">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1081,6 +1081,22 @@
   </si>
   <si>
     <t>평범한 배낭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤탈리스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="H215" sqref="H215"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6492,31 +6508,116 @@
       <c r="A216" s="3">
         <v>215</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="B216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1495</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G216" s="4">
+        <v>44375</v>
+      </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" s="3">
         <v>216</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="B217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D217" s="3">
+        <v>3</v>
+      </c>
+      <c r="E217" s="3">
+        <v>12869</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G217" s="4">
+        <v>44376</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="3">
         <v>217</v>
       </c>
-      <c r="C218" s="3"/>
+      <c r="B218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D218" s="3">
+        <v>3</v>
+      </c>
+      <c r="E218" s="3">
+        <v>10422</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="4">
+        <v>44376</v>
+      </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" s="3">
         <v>218</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="B219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2</v>
+      </c>
+      <c r="E219" s="3">
+        <v>2293</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G219" s="4">
+        <v>44376</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" s="3">
         <v>219</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="B220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2</v>
+      </c>
+      <c r="E220" s="3">
+        <v>2294</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G220" s="4">
+        <v>44376</v>
+      </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A8546E-2114-4D20-8451-D65ED7023114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22028728-90E7-40C1-9688-C10C5A5E50AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="268">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1097,6 +1097,18 @@
   </si>
   <si>
     <t>동전 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1511,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="H210" sqref="H210"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6623,19 +6635,70 @@
       <c r="A221" s="3">
         <v>220</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="B221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D221" s="3">
+        <v>3</v>
+      </c>
+      <c r="E221" s="3">
+        <v>11058</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G221" s="4">
+        <v>44377</v>
+      </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="3">
         <v>221</v>
       </c>
-      <c r="C222" s="3"/>
+      <c r="B222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D222" s="3">
+        <v>1</v>
+      </c>
+      <c r="E222" s="3">
+        <v>9251</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G222" s="4">
+        <v>44377</v>
+      </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" s="3">
         <v>222</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="B223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D223" s="3">
+        <v>1</v>
+      </c>
+      <c r="E223" s="3">
+        <v>9252</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G223" s="4">
+        <v>44377</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22028728-90E7-40C1-9688-C10C5A5E50AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE364200-BD35-4A6F-8475-15CB840D604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="270">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,6 +1109,14 @@
   </si>
   <si>
     <t>LCS 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 부분 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="H222" sqref="H222"/>
+    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
+      <selection activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6704,99 +6712,133 @@
       <c r="A224" s="3">
         <v>223</v>
       </c>
-      <c r="C224" s="3"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2</v>
+      </c>
+      <c r="E224" s="3">
+        <v>5582</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G224" s="4">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
         <v>224</v>
       </c>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2</v>
+      </c>
+      <c r="E225" s="3">
+        <v>5557</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G225" s="4">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
         <v>226</v>
       </c>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
         <v>233</v>
       </c>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
         <v>239</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE364200-BD35-4A6F-8475-15CB840D604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95087E30-1317-490F-890B-19FB6312A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="271">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,6 +1117,10 @@
   </si>
   <si>
     <t>1학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팰린드롬 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1531,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
-      <selection activeCell="G225" sqref="G225"/>
+    <sheetView tabSelected="1" topLeftCell="C212" workbookViewId="0">
+      <selection activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6758,7 +6762,21 @@
       <c r="A226" s="3">
         <v>225</v>
       </c>
-      <c r="C226" s="3"/>
+      <c r="C226" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D226" s="3">
+        <v>3</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1695</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G226" s="4">
+        <v>44380</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95087E30-1317-490F-890B-19FB6312A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A294CD-53C0-43B0-AC37-D58DA93C0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="274">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,6 +1121,18 @@
   </si>
   <si>
     <t>팰린드롬 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행렬 곱셈 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 기록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1535,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C212" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227"/>
+    <sheetView tabSelected="1" topLeftCell="C215" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6782,19 +6794,61 @@
       <c r="A227" s="3">
         <v>226</v>
       </c>
-      <c r="C227" s="3"/>
+      <c r="C227" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2</v>
+      </c>
+      <c r="E227" s="3">
+        <v>11049</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G227" s="4">
+        <v>44381</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
         <v>227</v>
       </c>
-      <c r="C228" s="3"/>
+      <c r="C228" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D228" s="3">
+        <v>3</v>
+      </c>
+      <c r="E228" s="3">
+        <v>12969</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G228" s="4">
+        <v>44381</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
         <v>228</v>
       </c>
-      <c r="C229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D229" s="3">
+        <v>3</v>
+      </c>
+      <c r="E229" s="3">
+        <v>14238</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G229" s="4">
+        <v>44381</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A294CD-53C0-43B0-AC37-D58DA93C0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5139C476-4A76-4F62-B7D8-03A70EB71514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="276">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,6 +1133,14 @@
   </si>
   <si>
     <t>출근 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOJ 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acka</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1547,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C215" workbookViewId="0">
-      <selection activeCell="H222" sqref="H222"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6774,6 +6782,9 @@
       <c r="A226" s="3">
         <v>225</v>
       </c>
+      <c r="B226" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C226" s="3" t="s">
         <v>239</v>
       </c>
@@ -6794,6 +6805,9 @@
       <c r="A227" s="3">
         <v>226</v>
       </c>
+      <c r="B227" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C227" s="3" t="s">
         <v>239</v>
       </c>
@@ -6814,6 +6828,9 @@
       <c r="A228" s="3">
         <v>227</v>
       </c>
+      <c r="B228" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C228" s="3" t="s">
         <v>239</v>
       </c>
@@ -6834,6 +6851,9 @@
       <c r="A229" s="3">
         <v>228</v>
       </c>
+      <c r="B229" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C229" s="3" t="s">
         <v>239</v>
       </c>
@@ -6854,13 +6874,47 @@
       <c r="A230" s="3">
         <v>229</v>
       </c>
-      <c r="C230" s="3"/>
+      <c r="B230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1</v>
+      </c>
+      <c r="E230" s="3">
+        <v>12026</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G230" s="4">
+        <v>44381</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
         <v>230</v>
       </c>
-      <c r="C231" s="3"/>
+      <c r="B231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2</v>
+      </c>
+      <c r="E231" s="3">
+        <v>12996</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G231" s="4">
+        <v>44381</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5139C476-4A76-4F62-B7D8-03A70EB71514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA1FA69-1250-4B18-B32D-0D4B52A00FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="279">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,6 +1141,18 @@
   </si>
   <si>
     <t>Acka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스노트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 괄호 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형기관차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1555,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="C218" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6920,19 +6932,70 @@
       <c r="A232" s="3">
         <v>231</v>
       </c>
-      <c r="C232" s="3"/>
+      <c r="B232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D232" s="3">
+        <v>3</v>
+      </c>
+      <c r="E232" s="3">
+        <v>2281</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G232" s="4">
+        <v>44383</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
         <v>232</v>
       </c>
-      <c r="C233" s="3"/>
+      <c r="B233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233" s="3">
+        <v>3</v>
+      </c>
+      <c r="E233" s="3">
+        <v>3012</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G233" s="4">
+        <v>44383</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
         <v>233</v>
       </c>
-      <c r="C234" s="3"/>
+      <c r="B234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D234" s="3">
+        <v>3</v>
+      </c>
+      <c r="E234" s="3">
+        <v>2616</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G234" s="4">
+        <v>44383</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA1FA69-1250-4B18-B32D-0D4B52A00FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C861EF-432E-40C5-89DF-9A7D944045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="283">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1153,6 +1153,22 @@
   </si>
   <si>
     <t>소형기관차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 안의 열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔굽혀펴기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1567,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C218" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" topLeftCell="C221" workbookViewId="0">
+      <selection activeCell="H237" sqref="H237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6767,7 +6783,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -6790,7 +6806,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -6813,7 +6829,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -6836,7 +6852,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -6859,7 +6875,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -6882,7 +6898,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -6905,7 +6921,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -6928,7 +6944,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -6951,7 +6967,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -6974,7 +6990,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -6997,37 +7013,82 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
         <v>234</v>
       </c>
-      <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C235" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D235" s="3">
+        <v>3</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1413</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G235" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="3">
         <v>235</v>
       </c>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C236" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D236" s="3">
+        <v>3</v>
+      </c>
+      <c r="E236" s="3">
+        <v>10564</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G236" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
         <v>236</v>
       </c>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C237" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D237" s="3">
+        <v>3</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1970</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G237" s="4">
+        <v>44384</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
         <v>239</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C861EF-432E-40C5-89DF-9A7D944045FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B291951-BD2F-436E-A6FE-32D23C3CE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="289">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1169,6 +1169,30 @@
   </si>
   <si>
     <t>미해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초콜릿 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루트포스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 번호판1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념 반 후라이드 반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로마 숫자 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C221" workbookViewId="0">
-      <selection activeCell="H237" sqref="H237"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="G243" sqref="G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7017,6 +7041,9 @@
       <c r="A235" s="3">
         <v>234</v>
       </c>
+      <c r="B235" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C235" s="3" t="s">
         <v>239</v>
       </c>
@@ -7037,6 +7064,9 @@
       <c r="A236" s="3">
         <v>235</v>
       </c>
+      <c r="B236" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C236" s="3" t="s">
         <v>239</v>
       </c>
@@ -7057,6 +7087,9 @@
       <c r="A237" s="3">
         <v>236</v>
       </c>
+      <c r="B237" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C237" s="3" t="s">
         <v>239</v>
       </c>
@@ -7080,111 +7113,196 @@
       <c r="A238" s="3">
         <v>237</v>
       </c>
-      <c r="C238" s="3"/>
+      <c r="B238" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D238" s="3">
+        <v>1</v>
+      </c>
+      <c r="E238" s="3">
+        <v>2163</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G238" s="4">
+        <v>44385</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
         <v>238</v>
       </c>
-      <c r="C239" s="3"/>
+      <c r="B239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D239" s="3">
+        <v>3</v>
+      </c>
+      <c r="E239" s="3">
+        <v>12872</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G239" s="4">
+        <v>44385</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
         <v>239</v>
       </c>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B240" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D240" s="3">
+        <v>1</v>
+      </c>
+      <c r="E240" s="3">
+        <v>16968</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G240" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" s="3">
         <v>240</v>
       </c>
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B241" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D241" s="3">
+        <v>1</v>
+      </c>
+      <c r="E241" s="3">
+        <v>16917</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G241" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" s="3">
         <v>241</v>
       </c>
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B242" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D242" s="3">
+        <v>1</v>
+      </c>
+      <c r="E242" s="3">
+        <v>16922</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G242" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" s="3">
         <v>245</v>
       </c>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" s="3">
         <v>248</v>
       </c>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" s="3">
         <v>251</v>
       </c>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
         <v>252</v>
       </c>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
         <v>253</v>
       </c>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
         <v>254</v>
       </c>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
         <v>255</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b91803213b95b63b/문서/GitHub/GC_Algorithm_Study/junheon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B291951-BD2F-436E-A6FE-32D23C3CE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{8B291951-BD2F-436E-A6FE-32D23C3CE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D45ECD9-3A92-4EF3-8D2E-4D1D807E16AC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="292">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,6 +1193,18 @@
   </si>
   <si>
     <t>로마 숫자 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십자가 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나3곱2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 스티커</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1608,7 +1620,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="G243" sqref="G243"/>
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7228,19 +7240,70 @@
       <c r="A243" s="3">
         <v>242</v>
       </c>
-      <c r="C243" s="3"/>
+      <c r="B243" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D243" s="3">
+        <v>1</v>
+      </c>
+      <c r="E243" s="3">
+        <v>16924</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G243" s="4">
+        <v>44386</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" s="3">
         <v>243</v>
       </c>
-      <c r="C244" s="3"/>
+      <c r="B244" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D244" s="3">
+        <v>1</v>
+      </c>
+      <c r="E244" s="3">
+        <v>16936</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G244" s="4">
+        <v>44386</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
         <v>244</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="B245" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D245" s="3">
+        <v>1</v>
+      </c>
+      <c r="E245" s="3">
+        <v>16937</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G245" s="4">
+        <v>44386</v>
+      </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b91803213b95b63b/문서/GitHub/GC_Algorithm_Study/junheon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{8B291951-BD2F-436E-A6FE-32D23C3CE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D45ECD9-3A92-4EF3-8D2E-4D1D807E16AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E5591-FE92-4924-A163-1C7EC976D6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="298">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,6 +1205,30 @@
   </si>
   <si>
     <t>두 스티커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠프 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(2^N) N &lt;= 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(N^N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 재배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호 추가하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1619,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="H248" sqref="H248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7190,7 +7214,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -7213,7 +7237,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -7236,7 +7260,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -7259,7 +7283,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -7282,7 +7306,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -7305,67 +7329,141 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246" s="3">
         <v>245</v>
       </c>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B246" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D246" s="3">
+        <v>1</v>
+      </c>
+      <c r="E246" s="3">
+        <v>16938</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G246" s="4">
+        <v>44391</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247" s="3">
         <v>246</v>
       </c>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B247" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D247" s="3">
+        <v>1</v>
+      </c>
+      <c r="E247" s="3">
+        <v>16943</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G247" s="4">
+        <v>44391</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248" s="3">
         <v>247</v>
       </c>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B248" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2</v>
+      </c>
+      <c r="E248" s="3">
+        <v>16637</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G248" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" s="3">
         <v>248</v>
       </c>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B249" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2</v>
+      </c>
+      <c r="E249" s="3">
+        <v>15683</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G249" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" s="3">
         <v>251</v>
       </c>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
         <v>252</v>
       </c>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
         <v>253</v>
       </c>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
         <v>254</v>
       </c>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
         <v>255</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E5591-FE92-4924-A163-1C7EC976D6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8B5865-EE4B-48BA-9EA3-E162274912C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="300">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1229,14 @@
   </si>
   <si>
     <t>감시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등차수열 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨 배달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1643,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="H248" sqref="H248"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7431,13 +7439,47 @@
       <c r="A250" s="3">
         <v>249</v>
       </c>
-      <c r="C250" s="3"/>
+      <c r="B250" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2</v>
+      </c>
+      <c r="E250" s="3">
+        <v>17088</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G250" s="4">
+        <v>44393</v>
+      </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
         <v>250</v>
       </c>
-      <c r="C251" s="3"/>
+      <c r="B251" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D251" s="3">
+        <v>1</v>
+      </c>
+      <c r="E251" s="3">
+        <v>15686</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G251" s="4">
+        <v>44393</v>
+      </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8B5865-EE4B-48BA-9EA3-E162274912C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8ABA9-6BD6-4D5A-BAA2-E30C218F8872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="302">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1237,6 +1237,14 @@
   </si>
   <si>
     <t>치킨 배달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자판 점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한윤정이 이탈리아에 가서 아이스크림을 사먹는데</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1652,7 +1660,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="G252" sqref="G252"/>
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7485,13 +7493,47 @@
       <c r="A252" s="3">
         <v>251</v>
       </c>
-      <c r="C252" s="3"/>
+      <c r="B252" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D252" s="3">
+        <v>1</v>
+      </c>
+      <c r="E252" s="3">
+        <v>2210</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G252" s="4">
+        <v>44394</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
         <v>252</v>
       </c>
-      <c r="C253" s="3"/>
+      <c r="B253" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D253" s="3">
+        <v>1</v>
+      </c>
+      <c r="E253" s="3">
+        <v>2422</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G253" s="4">
+        <v>44394</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8ABA9-6BD6-4D5A-BAA2-E30C218F8872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA731D1-0E6D-4F25-B2C3-9ECBF5D77A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="304">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1245,6 +1245,14 @@
   </si>
   <si>
     <t>한윤정이 이탈리아에 가서 아이스크림을 사먹는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 돌리기4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1659,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7539,13 +7547,47 @@
       <c r="A254" s="3">
         <v>253</v>
       </c>
-      <c r="C254" s="3"/>
+      <c r="B254" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D254" s="3">
+        <v>1</v>
+      </c>
+      <c r="E254" s="3">
+        <v>17089</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G254" s="4">
+        <v>44395</v>
+      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
         <v>254</v>
       </c>
-      <c r="C255" s="3"/>
+      <c r="B255" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D255" s="3">
+        <v>1</v>
+      </c>
+      <c r="E255" s="3">
+        <v>17406</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G255" s="4">
+        <v>44395</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA731D1-0E6D-4F25-B2C3-9ECBF5D77A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9646A5-9BDF-4D6E-97E8-E110E3E5A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="305">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1253,6 +1253,10 @@
   </si>
   <si>
     <t>배열 돌리기4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐슬 디펜스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1668,7 +1672,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="G256" sqref="G256"/>
+      <selection activeCell="G257" sqref="G257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7593,7 +7597,24 @@
       <c r="A256" s="3">
         <v>255</v>
       </c>
-      <c r="C256" s="3"/>
+      <c r="B256" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D256" s="3">
+        <v>1</v>
+      </c>
+      <c r="E256" s="3">
+        <v>17135</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G256" s="4">
+        <v>44397</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9646A5-9BDF-4D6E-97E8-E110E3E5A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163C70F-B3CB-412D-A03A-D7B512441C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="36570" yWindow="1365" windowWidth="14400" windowHeight="7365" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="308">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1257,6 +1257,18 @@
   </si>
   <si>
     <t>캐슬 디펜스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게리맨더링2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이프 옮기기1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1671,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="G257" sqref="G257"/>
+    <sheetView tabSelected="1" topLeftCell="B254" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7616,97 +7628,148 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" s="3">
         <v>256</v>
       </c>
-      <c r="C257" s="3"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B257" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D257" s="3">
+        <v>1</v>
+      </c>
+      <c r="E257" s="3">
+        <v>17281</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G257" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" s="3">
         <v>257</v>
       </c>
-      <c r="C258" s="3"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B258" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2</v>
+      </c>
+      <c r="E258" s="3">
+        <v>17779</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G258" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" s="3">
         <v>258</v>
       </c>
-      <c r="C259" s="3"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B259" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D259" s="3">
+        <v>1</v>
+      </c>
+      <c r="E259" s="3">
+        <v>17070</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G259" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" s="3">
         <v>259</v>
       </c>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" s="3">
         <v>260</v>
       </c>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" s="3">
         <v>261</v>
       </c>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" s="3">
         <v>262</v>
       </c>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" s="3">
         <v>263</v>
       </c>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
         <v>264</v>
       </c>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" s="3">
         <v>265</v>
       </c>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" s="3">
         <v>266</v>
       </c>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" s="3">
         <v>267</v>
       </c>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" s="3">
         <v>268</v>
       </c>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" s="3">
         <v>269</v>
       </c>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" s="3">
         <v>270</v>
       </c>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" s="3">
         <v>271</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163C70F-B3CB-412D-A03A-D7B512441C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD906D99-2CDA-4A84-822A-BD6EF8DF44DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36570" yWindow="1365" windowWidth="14400" windowHeight="7365" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="310">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1269,6 +1269,14 @@
   </si>
   <si>
     <t>파이프 옮기기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이프 옮기기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호 추가하기2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1683,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B254" workbookViewId="0">
-      <selection activeCell="F259" sqref="F259"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7701,13 +7709,47 @@
       <c r="A260" s="3">
         <v>259</v>
       </c>
-      <c r="C260" s="3"/>
+      <c r="B260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2</v>
+      </c>
+      <c r="E260" s="3">
+        <v>17069</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G260" s="4">
+        <v>44400</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" s="3">
         <v>260</v>
       </c>
-      <c r="C261" s="3"/>
+      <c r="B261" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D261" s="3">
+        <v>3</v>
+      </c>
+      <c r="E261" s="3">
+        <v>16638</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G261" s="4">
+        <v>44400</v>
+      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD906D99-2CDA-4A84-822A-BD6EF8DF44DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D3B624-3039-442F-957A-FEBC417E9689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="311">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,6 +1277,10 @@
   </si>
   <si>
     <t>괄호 추가하기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십자가 2개 놓기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1692,7 +1696,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="G262" sqref="G262"/>
+      <selection activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7755,7 +7759,24 @@
       <c r="A262" s="3">
         <v>261</v>
       </c>
-      <c r="C262" s="3"/>
+      <c r="B262" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D262" s="3">
+        <v>3</v>
+      </c>
+      <c r="E262" s="3">
+        <v>17085</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G262" s="4">
+        <v>44401</v>
+      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D3B624-3039-442F-957A-FEBC417E9689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985BEA2-8C3B-4172-94F2-370FA4F0D120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="315">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1281,6 +1281,22 @@
   </si>
   <si>
     <t>십자가 2개 놓기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 윷놀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란으로 계란치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baaaaaaaaaduk2 (Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리 조작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="F263" sqref="F263"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7782,25 +7798,93 @@
       <c r="A263" s="3">
         <v>262</v>
       </c>
-      <c r="C263" s="3"/>
+      <c r="B263" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D263" s="3">
+        <v>3</v>
+      </c>
+      <c r="E263" s="3">
+        <v>17825</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G263" s="4">
+        <v>44404</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" s="3">
         <v>263</v>
       </c>
-      <c r="C264" s="3"/>
+      <c r="B264" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D264" s="3">
+        <v>1</v>
+      </c>
+      <c r="E264" s="3">
+        <v>16987</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G264" s="4">
+        <v>44404</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
         <v>264</v>
       </c>
-      <c r="C265" s="3"/>
+      <c r="B265" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2</v>
+      </c>
+      <c r="E265" s="3">
+        <v>16988</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G265" s="4">
+        <v>44404</v>
+      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" s="3">
         <v>265</v>
       </c>
-      <c r="C266" s="3"/>
+      <c r="B266" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D266" s="3">
+        <v>3</v>
+      </c>
+      <c r="E266" s="3">
+        <v>15684</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G266" s="4">
+        <v>44404</v>
+      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985BEA2-8C3B-4172-94F2-370FA4F0D120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2829BCD-8437-4535-B827-12A22528AAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="318">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1297,6 +1297,18 @@
   </si>
   <si>
     <t>사다리 조작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직 스퀘어로 변경하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A -&gt; B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색종이 붙이기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7890,19 +7902,70 @@
       <c r="A267" s="3">
         <v>266</v>
       </c>
-      <c r="C267" s="3"/>
+      <c r="B267" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D267" s="3">
+        <v>3</v>
+      </c>
+      <c r="E267" s="3">
+        <v>16945</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G267" s="4">
+        <v>44405</v>
+      </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" s="3">
         <v>267</v>
       </c>
-      <c r="C268" s="3"/>
+      <c r="B268" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D268" s="3">
+        <v>1</v>
+      </c>
+      <c r="E268" s="3">
+        <v>16953</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G268" s="4">
+        <v>44405</v>
+      </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" s="3">
         <v>268</v>
       </c>
-      <c r="C269" s="3"/>
+      <c r="B269" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D269" s="3">
+        <v>2</v>
+      </c>
+      <c r="E269" s="3">
+        <v>17136</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G269" s="4">
+        <v>44405</v>
+      </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2829BCD-8437-4535-B827-12A22528AAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD49AD52-751C-44A1-89B7-1E7E90336375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="321">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1309,6 +1309,18 @@
   </si>
   <si>
     <t>색종이 붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게리맨더링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maaaaaaaaaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로 탈출하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1723,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="F272" sqref="F272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7971,19 +7983,70 @@
       <c r="A270" s="3">
         <v>269</v>
       </c>
-      <c r="C270" s="3"/>
+      <c r="B270" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2</v>
+      </c>
+      <c r="E270" s="3">
+        <v>17471</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G270" s="4">
+        <v>44408</v>
+      </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" s="3">
         <v>270</v>
       </c>
-      <c r="C271" s="3"/>
+      <c r="B271" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2</v>
+      </c>
+      <c r="E271" s="3">
+        <v>16985</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G271" s="4">
+        <v>44408</v>
+      </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" s="3">
         <v>271</v>
       </c>
-      <c r="C272" s="3"/>
+      <c r="B272" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D272" s="3">
+        <v>1</v>
+      </c>
+      <c r="E272" s="3">
+        <v>17090</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G272" s="4">
+        <v>44408</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD49AD52-751C-44A1-89B7-1E7E90336375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C75F293-E643-49F7-9FF9-5168B3014FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="326">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1321,6 +1321,26 @@
   </si>
   <si>
     <t>미로 탈출하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traning1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloodDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongestPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlalomSkiing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="H276" sqref="H276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8048,97 +8068,139 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" s="3">
         <v>272</v>
       </c>
-      <c r="C273" s="3"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C273" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D273" s="3">
+        <v>2</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G273" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" s="3">
         <v>273</v>
       </c>
-      <c r="C274" s="3"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C274" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D274" s="3">
+        <v>1</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G274" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" s="3">
         <v>274</v>
       </c>
-      <c r="C275" s="3"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C275" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D275" s="3">
+        <v>3</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G275" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" s="3">
         <v>275</v>
       </c>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
         <v>276</v>
       </c>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
         <v>277</v>
       </c>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" s="3">
         <v>278</v>
       </c>
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
         <v>279</v>
       </c>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
         <v>280</v>
       </c>
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
         <v>281</v>
       </c>
       <c r="C282" s="3"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" s="3">
         <v>282</v>
       </c>
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" s="3">
         <v>283</v>
       </c>
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
         <v>284</v>
       </c>
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" s="3">
         <v>285</v>
       </c>
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" s="3">
         <v>286</v>
       </c>
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" s="3">
         <v>287</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C75F293-E643-49F7-9FF9-5168B3014FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C3B96-2E64-463C-806F-E1DCD5D731BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="331">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1328,19 +1328,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Traning1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloodDepth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LongestPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlalomSkiing</t>
+    <t>Lesson 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traning 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odd Occurent In Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyclic Rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slalom Skiing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flood Depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1755,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="H276" sqref="H276"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8079,10 +8099,10 @@
         <v>2</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G273" s="4">
         <v>44409</v>
@@ -8099,10 +8119,10 @@
         <v>1</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G274" s="4">
         <v>44409</v>
@@ -8119,10 +8139,10 @@
         <v>3</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G275" s="4">
         <v>44409</v>
@@ -8132,19 +8152,61 @@
       <c r="A276" s="3">
         <v>275</v>
       </c>
-      <c r="C276" s="3"/>
+      <c r="C276" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D276" s="3">
+        <v>2</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G276" s="4">
+        <v>44411</v>
+      </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
         <v>276</v>
       </c>
-      <c r="C277" s="3"/>
+      <c r="C277" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D277" s="3">
+        <v>1</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G277" s="4">
+        <v>44411</v>
+      </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
         <v>277</v>
       </c>
-      <c r="C278" s="3"/>
+      <c r="C278" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G278" s="4">
+        <v>44411</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C3B96-2E64-463C-806F-E1DCD5D731BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F00394C-E602-44EE-B92F-0C61C308989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,6 +1361,34 @@
   </si>
   <si>
     <t>Flood Depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frog Jmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prem Missing Elem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tape Equilibrium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frog River One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Counters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1775,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="G279" sqref="G279"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="G283" sqref="G283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8212,31 +8240,101 @@
       <c r="A279" s="3">
         <v>278</v>
       </c>
-      <c r="C279" s="3"/>
+      <c r="C279" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D279" s="3">
+        <v>1</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G279" s="4">
+        <v>44412</v>
+      </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
         <v>279</v>
       </c>
-      <c r="C280" s="3"/>
+      <c r="C280" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D280" s="3">
+        <v>1</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G280" s="4">
+        <v>44412</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
         <v>280</v>
       </c>
-      <c r="C281" s="3"/>
+      <c r="C281" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D281" s="3">
+        <v>1</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G281" s="4">
+        <v>44412</v>
+      </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
         <v>281</v>
       </c>
-      <c r="C282" s="3"/>
+      <c r="C282" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D282" s="3">
+        <v>1</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G282" s="4">
+        <v>44412</v>
+      </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" s="3">
         <v>282</v>
       </c>
-      <c r="C283" s="3"/>
+      <c r="C283" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D283" s="3">
+        <v>1</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G283" s="4">
+        <v>44412</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F00394C-E602-44EE-B92F-0C61C308989D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF7C646-4C2F-48FC-B4B1-04CAED74C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="343">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,6 +1389,26 @@
   </si>
   <si>
     <t>Max Counters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perm Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genomic Range Query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1804,7 +1824,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="G283" sqref="G283"/>
+      <selection activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8340,25 +8360,81 @@
       <c r="A284" s="3">
         <v>283</v>
       </c>
-      <c r="C284" s="3"/>
+      <c r="C284" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D284" s="3">
+        <v>1</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G284" s="4">
+        <v>44414</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
         <v>284</v>
       </c>
-      <c r="C285" s="3"/>
+      <c r="C285" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G285" s="4">
+        <v>44414</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" s="3">
         <v>285</v>
       </c>
-      <c r="C286" s="3"/>
+      <c r="C286" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D286" s="3">
+        <v>1</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G286" s="4">
+        <v>44414</v>
+      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" s="3">
         <v>286</v>
       </c>
-      <c r="C287" s="3"/>
+      <c r="C287" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D287" s="3">
+        <v>3</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G287" s="4">
+        <v>44414</v>
+      </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF7C646-4C2F-48FC-B4B1-04CAED74C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04BEA65-E879-4F55-B3E7-1460F2E5E826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="346">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1409,6 +1409,18 @@
   </si>
   <si>
     <t>Genomic Range Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 배 더하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1823,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="C288" sqref="C288"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8440,99 +8452,150 @@
       <c r="A288" s="3">
         <v>287</v>
       </c>
-      <c r="C288" s="3"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B288" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D288" s="3">
+        <v>3</v>
+      </c>
+      <c r="E288" s="3">
+        <v>12931</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G288" s="4">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" s="3">
         <v>288</v>
       </c>
-      <c r="C289" s="3"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B289" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D289" s="3">
+        <v>3</v>
+      </c>
+      <c r="E289" s="3">
+        <v>16958</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G289" s="4">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" s="3">
         <v>289</v>
       </c>
-      <c r="C290" s="3"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B290" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D290" s="3">
+        <v>3</v>
+      </c>
+      <c r="E290" s="3">
+        <v>12908</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G290" s="4">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" s="3">
         <v>290</v>
       </c>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" s="3">
         <v>291</v>
       </c>
       <c r="C292" s="3"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" s="3">
         <v>292</v>
       </c>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" s="3">
         <v>293</v>
       </c>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" s="3">
         <v>294</v>
       </c>
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" s="3">
         <v>295</v>
       </c>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
         <v>296</v>
       </c>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" s="3">
         <v>297</v>
       </c>
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" s="3">
         <v>298</v>
       </c>
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" s="3">
         <v>299</v>
       </c>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" s="3">
         <v>300</v>
       </c>
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" s="3">
         <v>301</v>
       </c>
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" s="3">
         <v>302</v>
       </c>
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
         <v>303</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04BEA65-E879-4F55-B3E7-1460F2E5E826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448D9EBE-BC0E-4859-84EE-E53A1C1A740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="347">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1421,6 +1421,10 @@
   </si>
   <si>
     <t>텔레포트 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체스판 위의 공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="F290" sqref="F290"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8521,7 +8525,24 @@
       <c r="A291" s="3">
         <v>290</v>
       </c>
-      <c r="C291" s="3"/>
+      <c r="B291" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D291" s="3">
+        <v>3</v>
+      </c>
+      <c r="E291" s="3">
+        <v>16957</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G291" s="4">
+        <v>44418</v>
+      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448D9EBE-BC0E-4859-84EE-E53A1C1A740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF648FD-3293-4C56-9D9F-C92BD59BEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="352">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,6 +1425,26 @@
   </si>
   <si>
     <t>체스판 위의 공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min Avg Two Slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passing Cars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Product of Three</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1839,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="G291" sqref="G291"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="H297" sqref="H297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8548,37 +8568,95 @@
       <c r="A292" s="3">
         <v>291</v>
       </c>
-      <c r="C292" s="3"/>
+      <c r="C292" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D292" s="3">
+        <v>3</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G292" s="4">
+        <v>44419</v>
+      </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" s="3">
         <v>292</v>
       </c>
-      <c r="C293" s="3"/>
+      <c r="C293" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D293" s="3">
+        <v>1</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G293" s="4">
+        <v>44419</v>
+      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" s="3">
         <v>293</v>
       </c>
-      <c r="C294" s="3"/>
+      <c r="C294" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D294" s="3">
+        <v>1</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G294" s="4">
+        <v>44419</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" s="3">
         <v>294</v>
       </c>
-      <c r="C295" s="3"/>
+      <c r="C295" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D295" s="3">
+        <v>2</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G295" s="4">
+        <v>44419</v>
+      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" s="3">
         <v>295</v>
       </c>
       <c r="C296" s="3"/>
+      <c r="G296" s="4"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
         <v>296</v>
       </c>
       <c r="C297" s="3"/>
+      <c r="G297" s="4"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF648FD-3293-4C56-9D9F-C92BD59BEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903DC4B7-8A87-40DF-810F-AB9010D94350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="355">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,78 +1340,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Odd Occurent In Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cyclic Rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slalom Skiing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flood Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lesson 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Frog Jmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prem Missing Elem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tape Equilibrium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lesson 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Frog River One</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Counters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perm Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lesson 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Count Div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Genomic Range Query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>두 배 더하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1428,23 +1368,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Min Avg Two Slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lesson 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Passing Cars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Distinct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Max Product of Three</t>
+    <t>Lesson 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDoubleSliceSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumberOfDiscIntersections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxProductOfThree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassingCars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinAvgTwoSlice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenomicRangeQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountDiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PermCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissingInteger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCounters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrogRiverOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TapeEquilibrium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PremMissingElem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrogJmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OddOccurentInArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CyclicRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BinaryGap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlalomSkiing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongestPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloodDepth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1859,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="H297" sqref="H297"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="H294" sqref="H294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8186,7 +8198,7 @@
         <v>323</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="G273" s="4">
         <v>44409</v>
@@ -8206,7 +8218,7 @@
         <v>323</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="G274" s="4">
         <v>44409</v>
@@ -8226,7 +8238,7 @@
         <v>323</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="G275" s="4">
         <v>44409</v>
@@ -8246,7 +8258,7 @@
         <v>322</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="G276" s="4">
         <v>44411</v>
@@ -8266,7 +8278,7 @@
         <v>324</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="G277" s="4">
         <v>44411</v>
@@ -8286,7 +8298,7 @@
         <v>324</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="G278" s="4">
         <v>44411</v>
@@ -8303,10 +8315,10 @@
         <v>1</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G279" s="4">
         <v>44412</v>
@@ -8323,10 +8335,10 @@
         <v>1</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G280" s="4">
         <v>44412</v>
@@ -8343,10 +8355,10 @@
         <v>1</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G281" s="4">
         <v>44412</v>
@@ -8363,10 +8375,10 @@
         <v>1</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G282" s="4">
         <v>44412</v>
@@ -8383,10 +8395,10 @@
         <v>1</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G283" s="4">
         <v>44412</v>
@@ -8403,10 +8415,10 @@
         <v>1</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G284" s="4">
         <v>44414</v>
@@ -8423,10 +8435,10 @@
         <v>1</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G285" s="4">
         <v>44414</v>
@@ -8443,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>341</v>
@@ -8463,10 +8475,10 @@
         <v>3</v>
       </c>
       <c r="E287" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F287" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="G287" s="4">
         <v>44414</v>
@@ -8489,7 +8501,7 @@
         <v>12931</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G288" s="4">
         <v>44415</v>
@@ -8512,7 +8524,7 @@
         <v>16958</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="G289" s="4">
         <v>44416</v>
@@ -8535,7 +8547,7 @@
         <v>12908</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G290" s="4">
         <v>44416</v>
@@ -8558,7 +8570,7 @@
         <v>16957</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G291" s="4">
         <v>44418</v>
@@ -8575,10 +8587,10 @@
         <v>3</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G292" s="4">
         <v>44419</v>
@@ -8595,10 +8607,10 @@
         <v>1</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G293" s="4">
         <v>44419</v>
@@ -8615,10 +8627,10 @@
         <v>1</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G294" s="4">
         <v>44419</v>
@@ -8635,10 +8647,10 @@
         <v>2</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G295" s="4">
         <v>44419</v>
@@ -8648,15 +8660,42 @@
       <c r="A296" s="3">
         <v>295</v>
       </c>
-      <c r="C296" s="3"/>
-      <c r="G296" s="4"/>
+      <c r="C296" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D296" s="3">
+        <v>3</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G296" s="4">
+        <v>44420</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
         <v>296</v>
       </c>
-      <c r="C297" s="3"/>
-      <c r="G297" s="4"/>
+      <c r="C297" s="3" t="str">
+        <f>$C$296</f>
+        <v>Codility</v>
+      </c>
+      <c r="D297" s="3">
+        <v>3</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G297" s="4">
+        <v>44420</v>
+      </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903DC4B7-8A87-40DF-810F-AB9010D94350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830F946-A53D-4C71-BDC9-0B17A837787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="362">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1457,6 +1457,34 @@
   </si>
   <si>
     <t>FloodDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brackets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nesting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxProfit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1871,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="H294" sqref="H294"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8701,43 +8729,120 @@
       <c r="A298" s="3">
         <v>297</v>
       </c>
-      <c r="C298" s="3"/>
+      <c r="C298" s="3" t="str">
+        <f>$C$296</f>
+        <v>Codility</v>
+      </c>
+      <c r="D298" s="3">
+        <v>3</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G298" s="4">
+        <v>44421</v>
+      </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" s="3">
         <v>298</v>
       </c>
-      <c r="C299" s="3"/>
+      <c r="C299" s="3" t="str">
+        <f>$C$296</f>
+        <v>Codility</v>
+      </c>
+      <c r="D299" s="3">
+        <v>1</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G299" s="4">
+        <v>44422</v>
+      </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" s="3">
         <v>299</v>
       </c>
-      <c r="C300" s="3"/>
+      <c r="C300" s="3" t="str">
+        <f t="shared" ref="C300:C305" si="0">$C$296</f>
+        <v>Codility</v>
+      </c>
+      <c r="D300" s="3">
+        <v>1</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G300" s="4">
+        <v>44422</v>
+      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" s="3">
         <v>300</v>
       </c>
-      <c r="C301" s="3"/>
+      <c r="C301" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Codility</v>
+      </c>
+      <c r="D301" s="3">
+        <v>1</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G301" s="4">
+        <v>44422</v>
+      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" s="3">
         <v>301</v>
       </c>
-      <c r="C302" s="3"/>
+      <c r="C302" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Codility</v>
+      </c>
+      <c r="D302" s="3">
+        <v>2</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G302" s="4">
+        <v>44422</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" s="3">
         <v>302</v>
       </c>
       <c r="C303" s="3"/>
+      <c r="G303" s="4"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
         <v>303</v>
       </c>
       <c r="C304" s="3"/>
+      <c r="G304" s="4"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830F946-A53D-4C71-BDC9-0B17A837787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CDF5E1-53CD-4E08-8696-212A248FCDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="364">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1485,6 +1485,14 @@
   </si>
   <si>
     <t>MaxProfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124 나라의 숫자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1899,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="F303" sqref="F303"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="H304" sqref="H304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8772,7 +8780,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" ref="C300:C305" si="0">$C$296</f>
+        <f t="shared" ref="C300:C302" si="0">$C$296</f>
         <v>Codility</v>
       </c>
       <c r="D300" s="3">
@@ -8834,15 +8842,41 @@
       <c r="A303" s="3">
         <v>302</v>
       </c>
-      <c r="C303" s="3"/>
-      <c r="G303" s="4"/>
+      <c r="C303" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D303" s="3">
+        <v>1</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G303" s="4">
+        <v>44423</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
         <v>303</v>
       </c>
-      <c r="C304" s="3"/>
-      <c r="G304" s="4"/>
+      <c r="C304" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D304" s="3">
+        <v>2</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G304" s="4">
+        <v>44423</v>
+      </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CDF5E1-53CD-4E08-8696-212A248FCDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D325003-981B-47D3-8F60-ADB0C8D24695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="365">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1493,6 +1493,10 @@
   </si>
   <si>
     <t>124 나라의 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀쩡한 사각형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1907,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="H304" sqref="H304"/>
+    <sheetView tabSelected="1" topLeftCell="B299" workbookViewId="0">
+      <selection activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8878,97 +8882,111 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305" s="3">
         <v>304</v>
       </c>
-      <c r="C305" s="3"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C305" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D305" s="3">
+        <v>3</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G305" s="4">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
         <v>305</v>
       </c>
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307" s="3">
         <v>306</v>
       </c>
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308" s="3">
         <v>307</v>
       </c>
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" s="3">
         <v>308</v>
       </c>
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310" s="3">
         <v>309</v>
       </c>
       <c r="C310" s="3"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" s="3">
         <v>310</v>
       </c>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
         <v>311</v>
       </c>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" s="3">
         <v>312</v>
       </c>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
         <v>313</v>
       </c>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" s="3">
         <v>314</v>
       </c>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" s="3">
         <v>315</v>
       </c>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" s="3">
         <v>316</v>
       </c>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
         <v>317</v>
       </c>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" s="3">
         <v>318</v>
       </c>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
         <v>319</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D325003-981B-47D3-8F60-ADB0C8D24695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA6EEB-003B-4888-95E8-FD2AF6D0E705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="376">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1497,6 +1497,50 @@
   </si>
   <si>
     <t>멀쩡한 사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 맵게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝지어 제거하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7분 40초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38분 50초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33분 35초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행렬 테두리 회전하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리두기 확인하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1911,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B299" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8882,7 +8926,7 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -8902,91 +8946,182 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
         <v>305</v>
       </c>
-      <c r="C306" s="3"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C306" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D306" s="3">
+        <v>2</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G306" s="4">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A307" s="3">
         <v>306</v>
       </c>
-      <c r="C307" s="3"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B307" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D307" s="3">
+        <v>2</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G307" s="4">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A308" s="3">
         <v>307</v>
       </c>
-      <c r="C308" s="3"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D308" s="3">
+        <v>1</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G308" s="4">
+        <v>44430</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A309" s="3">
         <v>308</v>
       </c>
-      <c r="C309" s="3"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B309" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D309" s="3">
+        <v>1</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G309" s="4">
+        <v>44430</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310" s="3">
         <v>309</v>
       </c>
-      <c r="C310" s="3"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B310" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D310" s="3">
+        <v>1</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G310" s="4">
+        <v>44430</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A311" s="3">
         <v>310</v>
       </c>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
         <v>311</v>
       </c>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A313" s="3">
         <v>312</v>
       </c>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
         <v>313</v>
       </c>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A315" s="3">
         <v>314</v>
       </c>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A316" s="3">
         <v>315</v>
       </c>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A317" s="3">
         <v>316</v>
       </c>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
         <v>317</v>
       </c>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A319" s="3">
         <v>318</v>
       </c>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
         <v>319</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA6EEB-003B-4888-95E8-FD2AF6D0E705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41BB4F-A88E-4903-BBDE-3D5A302BDD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="386">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1541,6 +1541,49 @@
   </si>
   <si>
     <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31분 10초
+사전순 정렬이 어떻게 되는지 잘 파악해야 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32분
+sort 시 Comparator 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32분
+collection stream 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 큰 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
       <selection activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
@@ -8994,7 +9037,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>240</v>
@@ -9067,23 +9110,83 @@
         <v>370</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A311" s="3">
         <v>310</v>
       </c>
-      <c r="C311" s="3"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B311" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D311" s="3">
+        <v>3</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G311" s="4">
+        <v>44432</v>
+      </c>
+      <c r="H311" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
         <v>311</v>
       </c>
-      <c r="C312" s="3"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B312" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D312" s="3">
+        <v>2</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G312" s="4">
+        <v>44432</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A313" s="3">
         <v>312</v>
       </c>
-      <c r="C313" s="3"/>
+      <c r="B313" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D313" s="3">
+        <v>3</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G313" s="4">
+        <v>44432</v>
+      </c>
+      <c r="H313" s="5" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A314" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD41BB4F-A88E-4903-BBDE-3D5A302BDD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064039B-3B57-412B-A82F-3BDFE489D2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="392">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1584,6 +1584,31 @@
   </si>
   <si>
     <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41분 15초
+브루트포스 + 에라토스테네스의 체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8분 55초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 맵 최단거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1998,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9188,23 +9213,83 @@
         <v>379</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
         <v>313</v>
       </c>
-      <c r="C314" s="3"/>
+      <c r="B314" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D314" s="3">
+        <v>2</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G314" s="4">
+        <v>44433</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A315" s="3">
         <v>314</v>
       </c>
-      <c r="C315" s="3"/>
+      <c r="B315" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D315" s="3">
+        <v>2</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G315" s="4">
+        <v>44433</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A316" s="3">
         <v>315</v>
       </c>
-      <c r="C316" s="3"/>
+      <c r="B316" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D316" s="3">
+        <v>1</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G316" s="4">
+        <v>44433</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A317" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064039B-3B57-412B-A82F-3BDFE489D2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F6CAB-C4F0-4194-9B03-63013C715273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="397">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1609,6 +1609,26 @@
   </si>
   <si>
     <t>게임 맵 최단거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 대진표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호 회전하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2023,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="B317" sqref="B317"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9295,117 +9315,176 @@
       <c r="A317" s="3">
         <v>316</v>
       </c>
-      <c r="C317" s="3"/>
+      <c r="C317" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D317" s="3">
+        <v>1</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G317" s="4">
+        <v>44436</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
         <v>317</v>
       </c>
-      <c r="C318" s="3"/>
+      <c r="B318" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D318" s="3">
+        <v>2</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G318" s="4">
+        <v>44436</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A319" s="3">
         <v>318</v>
       </c>
-      <c r="C319" s="3"/>
+      <c r="B319" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D319" s="3">
+        <v>2</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G319" s="4">
+        <v>44436</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
         <v>319</v>
       </c>
       <c r="C320" s="3"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A321" s="3">
         <v>320</v>
       </c>
       <c r="C321" s="3"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A322" s="3">
         <v>321</v>
       </c>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
         <v>322</v>
       </c>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A324" s="3">
         <v>323</v>
       </c>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
         <v>324</v>
       </c>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
         <v>325</v>
       </c>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
         <v>326</v>
       </c>
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A328" s="3">
         <v>327</v>
       </c>
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A329" s="3">
         <v>328</v>
       </c>
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A330" s="3">
         <v>329</v>
       </c>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A331" s="3">
         <v>330</v>
       </c>
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A332" s="3">
         <v>331</v>
       </c>
       <c r="C332" s="3"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A333" s="3">
         <v>332</v>
       </c>
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
         <v>333</v>
       </c>
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A335" s="3">
         <v>334</v>
       </c>
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
         <v>335</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553F6CAB-C4F0-4194-9B03-63013C715273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7645BAF-D678-4060-B75E-9657DAE11140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="401">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1629,6 +1629,22 @@
   </si>
   <si>
     <t>배달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리를 지나는 트럭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2044,7 +2060,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="F319" sqref="F319"/>
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9390,101 +9406,136 @@
       <c r="A320" s="3">
         <v>319</v>
       </c>
-      <c r="C320" s="3"/>
-      <c r="G320" s="4"/>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C320" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D320" s="3">
+        <v>3</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G320" s="4">
+        <v>44438</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A321" s="3">
         <v>320</v>
       </c>
-      <c r="C321" s="3"/>
-      <c r="G321" s="4"/>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B321" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D321" s="3">
+        <v>1</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G321" s="4">
+        <v>44438</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322" s="3">
         <v>321</v>
       </c>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
         <v>322</v>
       </c>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" s="3">
         <v>323</v>
       </c>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
         <v>324</v>
       </c>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
         <v>325</v>
       </c>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
         <v>326</v>
       </c>
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A328" s="3">
         <v>327</v>
       </c>
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" s="3">
         <v>328</v>
       </c>
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" s="3">
         <v>329</v>
       </c>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" s="3">
         <v>330</v>
       </c>
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" s="3">
         <v>331</v>
       </c>
       <c r="C332" s="3"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="3">
         <v>332</v>
       </c>
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
         <v>333</v>
       </c>
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" s="3">
         <v>334</v>
       </c>
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
         <v>335</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7645BAF-D678-4060-B75E-9657DAE11140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25699313-6C43-4843-B5AE-702169B576EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="410">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1645,6 +1645,42 @@
   </si>
   <si>
     <t>다리를 지나는 트럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카펫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brute force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품 / String 문제에서 char[]를 사용해라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 수 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy / Stack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,7 +2096,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9254,7 +9290,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>240</v>
@@ -9455,37 +9491,112 @@
       <c r="A322" s="3">
         <v>321</v>
       </c>
-      <c r="C322" s="3"/>
+      <c r="B322" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D322" s="3">
+        <v>3</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G322" s="4">
+        <v>44443</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
         <v>322</v>
       </c>
-      <c r="C323" s="3"/>
+      <c r="B323" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D323" s="3">
+        <v>1</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G323" s="4">
+        <v>44443</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" s="3">
         <v>323</v>
       </c>
-      <c r="C324" s="3"/>
+      <c r="B324" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D324" s="3">
+        <v>3</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G324" s="4">
+        <v>44443</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
         <v>324</v>
       </c>
-      <c r="C325" s="3"/>
+      <c r="C325" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
         <v>325</v>
       </c>
-      <c r="C326" s="3"/>
+      <c r="C326" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
         <v>326</v>
       </c>
-      <c r="C327" s="3"/>
+      <c r="C327" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A328" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25699313-6C43-4843-B5AE-702169B576EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF9D15-76A3-4ECC-B9E1-E6385FD3715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="414">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1681,6 +1681,22 @@
   </si>
   <si>
     <t>Greedy / Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 이하로 다른 비트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit masking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2095,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9569,22 +9585,52 @@
       <c r="A325" s="3">
         <v>324</v>
       </c>
+      <c r="B325" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="C325" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D325" s="3">
+        <v>1</v>
+      </c>
       <c r="E325" s="3" t="s">
         <v>242</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G325" s="4">
+        <v>44445</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
         <v>325</v>
       </c>
+      <c r="B326" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="C326" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D326" s="3">
+        <v>3</v>
+      </c>
       <c r="E326" s="3" t="s">
         <v>242</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G326" s="4">
+        <v>44445</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF9D15-76A3-4ECC-B9E1-E6385FD3715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697D791-F247-4B02-A6DC-29836D829141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="415">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1697,6 +1697,10 @@
   </si>
   <si>
     <t>bit masking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼각 달팽이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2111,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+    <sheetView tabSelected="1" topLeftCell="C316" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9637,11 +9641,26 @@
       <c r="A327" s="3">
         <v>326</v>
       </c>
+      <c r="B327" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="C327" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D327" s="3">
+        <v>3</v>
+      </c>
       <c r="E327" s="3" t="s">
         <v>242</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G327" s="4">
+        <v>44447</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697D791-F247-4B02-A6DC-29836D829141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE90690-F1B4-46A0-B28B-5FA6F9B0CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="420">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1701,6 +1701,26 @@
   </si>
   <si>
     <t>삼각 달팽이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 끝말잇기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구명보트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2116,7 +2136,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C316" workbookViewId="0">
-      <selection activeCell="H327" sqref="H327"/>
+      <selection activeCell="H330" sqref="H330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9667,31 +9687,92 @@
       <c r="A328" s="3">
         <v>327</v>
       </c>
-      <c r="C328" s="3"/>
+      <c r="C328" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D328" s="3">
+        <v>1</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G328" s="4">
+        <v>44449</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" s="3">
         <v>328</v>
       </c>
-      <c r="C329" s="3"/>
+      <c r="C329" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D329" s="3">
+        <v>3</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G329" s="4">
+        <v>44449</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" s="3">
         <v>329</v>
       </c>
-      <c r="C330" s="3"/>
+      <c r="C330" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D330" s="3">
+        <v>3</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G330" s="4">
+        <v>44449</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" s="3">
         <v>330</v>
       </c>
-      <c r="C331" s="3"/>
+      <c r="C331" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" s="3">
         <v>331</v>
       </c>
-      <c r="C332" s="3"/>
+      <c r="C332" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE90690-F1B4-46A0-B28B-5FA6F9B0CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D3EB4-E2B9-40C3-ACB7-39B1F46A338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="422">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1721,6 +1721,14 @@
   </si>
   <si>
     <t>구명보트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간24분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석 트래픽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2136,7 +2144,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C316" workbookViewId="0">
-      <selection activeCell="H330" sqref="H330"/>
+      <selection activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9759,8 +9767,20 @@
       <c r="C331" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D331" s="3">
+        <v>3</v>
+      </c>
       <c r="E331" s="3" t="s">
         <v>242</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G331" s="4">
+        <v>44455</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D3EB4-E2B9-40C3-ACB7-39B1F46A338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F3CBBD-BB70-4A0F-9736-0656484C0901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F3CBBD-BB70-4A0F-9736-0656484C0901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC71BC3-17A6-43D0-814D-76EB7D8AA5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="425">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1729,6 +1729,18 @@
   </si>
   <si>
     <t>추석 트래픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP or DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N으로 표현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2143,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C316" workbookViewId="0">
-      <selection activeCell="F331" sqref="F331"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="H337" sqref="H337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9771,7 +9783,7 @@
         <v>3</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>421</v>
@@ -9787,116 +9799,197 @@
       <c r="A332" s="3">
         <v>331</v>
       </c>
+      <c r="B332" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="C332" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D332" s="3">
+        <v>3</v>
+      </c>
       <c r="E332" s="3" t="s">
-        <v>242</v>
+        <v>422</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G332" s="4">
+        <v>44465</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="3">
         <v>332</v>
       </c>
-      <c r="C333" s="3"/>
+      <c r="C333" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D333" s="3">
+        <v>3</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
         <v>333</v>
       </c>
-      <c r="C334" s="3"/>
+      <c r="C334" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D334" s="3">
+        <v>3</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" s="3">
         <v>334</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D335" s="3">
+        <v>3</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
         <v>335</v>
       </c>
-      <c r="C336" s="3"/>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C336" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D336" s="3">
+        <v>3</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" s="3">
         <v>336</v>
       </c>
-      <c r="C337" s="3"/>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C337" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D337" s="3">
+        <v>3</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
         <v>337</v>
       </c>
-      <c r="C338" s="3"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C338" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D338" s="3">
+        <v>3</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
         <v>338</v>
       </c>
-      <c r="C339" s="3"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C339" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D339" s="3">
+        <v>3</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
         <v>339</v>
       </c>
-      <c r="C340" s="3"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C340" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
         <v>340</v>
       </c>
-      <c r="C341" s="3"/>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C341" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
         <v>341</v>
       </c>
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" s="3">
         <v>342</v>
       </c>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
         <v>343</v>
       </c>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" s="3">
         <v>344</v>
       </c>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" s="3">
         <v>345</v>
       </c>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" s="3">
         <v>346</v>
       </c>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC71BC3-17A6-43D0-814D-76EB7D8AA5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E327FCC-8B3E-4AFF-8C7D-3134FFFE1A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="430">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1741,6 +1741,26 @@
   </si>
   <si>
     <t>N으로 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입국심사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이분탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 인접리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 먼 노트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9825,6 +9845,9 @@
       <c r="A333" s="3">
         <v>332</v>
       </c>
+      <c r="B333" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="C333" s="3" t="s">
         <v>240</v>
       </c>
@@ -9833,12 +9856,24 @@
       </c>
       <c r="E333" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G333" s="4">
+        <v>44466</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
         <v>333</v>
       </c>
+      <c r="B334" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="C334" s="3" t="s">
         <v>240</v>
       </c>
@@ -9847,6 +9882,12 @@
       </c>
       <c r="E334" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G334" s="4">
+        <v>44466</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.45">
@@ -9877,7 +9918,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -9891,7 +9932,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -9905,7 +9946,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -9919,7 +9960,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -9930,7 +9971,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -9940,56 +9981,59 @@
       <c r="E341" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G341" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
         <v>341</v>
       </c>
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A343" s="3">
         <v>342</v>
       </c>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
         <v>343</v>
       </c>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A345" s="3">
         <v>344</v>
       </c>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A346" s="3">
         <v>345</v>
       </c>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A347" s="3">
         <v>346</v>
       </c>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E327FCC-8B3E-4AFF-8C7D-3134FFFE1A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5726090-D04E-43E1-B394-F781DC0CE15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="432">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1760,7 +1760,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가장 먼 노트</t>
+    <t>1시간20분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 먼 노드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2175,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="H337" sqref="H337"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9884,7 +9892,7 @@
         <v>422</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G334" s="4">
         <v>44466</v>
@@ -9894,28 +9902,52 @@
       <c r="A335" s="3">
         <v>334</v>
       </c>
+      <c r="B335" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="C335" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D335" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G335" s="4">
+        <v>44529</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
         <v>335</v>
       </c>
+      <c r="B336" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="C336" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D336" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G336" s="4">
+        <v>44529</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5726090-D04E-43E1-B394-F781DC0CE15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96EAAE1-12E9-4A7A-BDE2-C9AE5B487BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="433">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1769,6 +1769,10 @@
   </si>
   <si>
     <t>가장 먼 노드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2184,7 +2188,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337"/>
+      <selection activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9950,10 +9954,13 @@
         <v>418</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A337" s="3">
         <v>336</v>
       </c>
+      <c r="B337" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="C337" s="3" t="s">
         <v>240</v>
       </c>
@@ -9963,36 +9970,54 @@
       <c r="E337" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F337" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G337" s="4">
+        <v>44531</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
         <v>337</v>
       </c>
+      <c r="B338" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C338" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D338" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F338" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G338" s="4">
+        <v>44531</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
         <v>338</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D339" s="3">
-        <v>3</v>
-      </c>
       <c r="E339" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -10003,7 +10028,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -10017,55 +10042,55 @@
         <v>427</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
         <v>341</v>
       </c>
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A343" s="3">
         <v>342</v>
       </c>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
         <v>343</v>
       </c>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A345" s="3">
         <v>344</v>
       </c>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A346" s="3">
         <v>345</v>
       </c>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A347" s="3">
         <v>346</v>
       </c>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96EAAE1-12E9-4A7A-BDE2-C9AE5B487BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B364CD10-5224-42A1-A06A-CECC9F0E94A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="435">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1752,10 +1752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BFS 인접리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1773,6 +1769,18 @@
   </si>
   <si>
     <t>13분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라이언의 고민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리틀 프렌즈 사천성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2187,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="F341" sqref="F341"/>
+    <sheetView tabSelected="1" topLeftCell="C331" workbookViewId="0">
+      <selection activeCell="H340" sqref="H340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9884,7 +9892,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>240</v>
@@ -9896,7 +9904,7 @@
         <v>422</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G334" s="4">
         <v>44466</v>
@@ -9907,7 +9915,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>240</v>
@@ -9925,7 +9933,7 @@
         <v>44529</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.45">
@@ -9997,35 +10005,65 @@
         <v>422</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G338" s="4">
         <v>44531</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
         <v>338</v>
       </c>
+      <c r="B339" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C339" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D339" s="3">
+        <v>3</v>
+      </c>
       <c r="E339" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G339" s="4">
+        <v>44532</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
         <v>339</v>
       </c>
+      <c r="B340" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="C340" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D340" s="3">
+        <v>3</v>
+      </c>
       <c r="E340" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G340" s="4">
+        <v>44532</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.45">
@@ -10037,9 +10075,6 @@
       </c>
       <c r="E341" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="G341" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B364CD10-5224-42A1-A06A-CECC9F0E94A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7515FA63-0A99-46C3-9919-9BAB4F05E6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="439">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1781,6 +1781,22 @@
   </si>
   <si>
     <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 34분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2195,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C331" workbookViewId="0">
-      <selection activeCell="H340" sqref="H340"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10070,18 +10086,53 @@
       <c r="A341" s="3">
         <v>340</v>
       </c>
+      <c r="B341" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="C341" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D341" s="3">
+        <v>3</v>
+      </c>
       <c r="E341" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G341" s="4">
+        <v>44534</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
         <v>341</v>
       </c>
-      <c r="C342" s="3"/>
+      <c r="B342" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D342" s="3">
+        <v>1</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G342" s="4">
+        <v>44534</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A343" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7515FA63-0A99-46C3-9919-9BAB4F05E6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E73D4D9-898B-4B38-9684-C3B98919B739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="443">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1797,6 +1797,22 @@
   </si>
   <si>
     <t>8분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플로이드-워셜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1807,7 +1823,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1818,6 +1834,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1873,7 +1897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,6 +1918,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2211,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="F346" sqref="F346"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="F345" sqref="F345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2257,6 +2284,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
+        <f xml:space="preserve"> ROW() - 1</f>
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2280,6 +2308,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
+        <f t="shared" ref="A3:A66" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2303,6 +2332,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2326,6 +2356,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2349,6 +2380,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2372,6 +2404,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2395,6 +2428,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2418,6 +2452,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2441,6 +2476,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2464,6 +2500,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2487,6 +2524,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2510,6 +2548,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2533,6 +2572,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2556,6 +2596,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2579,6 +2620,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2602,6 +2644,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2625,6 +2668,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2648,6 +2692,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2671,6 +2716,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2694,6 +2740,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2717,6 +2764,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2740,6 +2788,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2763,6 +2812,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2786,6 +2836,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2809,6 +2860,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2832,6 +2884,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2855,6 +2908,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2878,6 +2932,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2901,6 +2956,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2924,6 +2980,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2947,6 +3004,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2970,6 +3028,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2993,6 +3052,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3016,6 +3076,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3039,6 +3100,7 @@
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3065,6 +3127,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3091,6 +3154,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3114,6 +3178,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3137,6 +3202,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3160,6 +3226,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3183,6 +3250,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3206,6 +3274,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3229,6 +3298,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3252,6 +3322,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3275,6 +3346,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3298,6 +3370,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3321,6 +3394,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3344,6 +3418,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3367,6 +3442,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3390,6 +3466,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3413,6 +3490,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3436,6 +3514,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3459,6 +3538,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -3485,6 +3565,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3508,6 +3589,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -3531,6 +3613,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -3554,6 +3637,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -3577,6 +3661,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -3603,6 +3688,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -3626,6 +3712,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3649,6 +3736,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -3672,6 +3760,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3695,6 +3784,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3718,6 +3808,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3741,6 +3832,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3767,6 +3859,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
+        <f t="shared" ref="A67:A130" si="1" xml:space="preserve"> ROW() - 1</f>
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3790,6 +3883,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3813,6 +3907,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3836,6 +3931,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -3859,6 +3955,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3882,6 +3979,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -3905,6 +4003,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -3931,6 +4030,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3954,6 +4054,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3977,6 +4078,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -4000,6 +4102,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -4026,6 +4129,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4052,6 +4156,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -4078,6 +4183,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4104,6 +4210,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -4130,6 +4237,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4156,6 +4264,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -4179,6 +4288,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -4205,6 +4315,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -4228,6 +4339,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -4251,6 +4363,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -4274,6 +4387,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -4297,6 +4411,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -4320,6 +4435,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4343,6 +4459,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -4366,6 +4483,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -4389,6 +4507,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -4412,6 +4531,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -4435,6 +4555,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -4458,6 +4579,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -4481,6 +4603,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4504,6 +4627,7 @@
     </row>
     <row r="98" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -4530,6 +4654,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -4553,6 +4678,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -4576,6 +4702,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -4602,6 +4729,7 @@
     </row>
     <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4628,6 +4756,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4651,6 +4780,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -4674,6 +4804,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4697,6 +4828,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4720,6 +4852,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -4743,6 +4876,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -4766,6 +4900,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -4789,6 +4924,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -4812,6 +4948,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -4835,6 +4972,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -4858,6 +4996,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -4881,6 +5020,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -4904,6 +5044,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -4927,6 +5068,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -4950,6 +5092,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -4976,6 +5119,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -4999,6 +5143,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -5025,6 +5170,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -5048,6 +5194,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -5071,6 +5218,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -5094,6 +5242,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -5120,6 +5269,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -5143,6 +5293,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -5166,6 +5317,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -5189,6 +5341,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -5212,6 +5365,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5238,6 +5392,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -5264,6 +5419,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -5287,6 +5443,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
+        <f t="shared" ref="A131:A194" si="2" xml:space="preserve"> ROW() - 1</f>
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -5310,6 +5467,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5333,6 +5491,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -5356,6 +5515,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5382,6 +5542,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -5405,6 +5566,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -5428,6 +5590,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -5451,6 +5614,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -5474,6 +5638,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -5497,6 +5662,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -5520,6 +5686,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -5543,6 +5710,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -5566,6 +5734,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -5589,6 +5758,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -5612,6 +5782,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -5635,6 +5806,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -5658,6 +5830,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -5681,6 +5854,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -5704,6 +5878,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -5727,6 +5902,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -5750,6 +5926,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -5773,6 +5950,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="3">
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -5796,6 +5974,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -5819,6 +5998,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -5842,6 +6022,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -5865,6 +6046,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="3">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -5888,6 +6070,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="3">
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -5911,6 +6094,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="3">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -5934,6 +6118,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="3">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -5960,6 +6145,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -5983,6 +6169,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="3">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -6006,6 +6193,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="3">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -6032,6 +6220,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="3">
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -6055,6 +6244,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="3">
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -6078,6 +6268,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -6101,6 +6292,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="3">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -6124,6 +6316,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="3">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -6147,6 +6340,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="3">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -6170,6 +6364,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -6193,6 +6388,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -6216,6 +6412,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="3">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -6239,6 +6436,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -6262,6 +6460,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="3">
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -6285,6 +6484,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="3">
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -6308,6 +6508,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -6331,6 +6532,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="3">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -6354,6 +6556,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="3">
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -6377,6 +6580,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="3">
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -6400,6 +6604,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="3">
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -6423,6 +6628,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -6446,6 +6652,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="3">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -6469,6 +6676,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="3">
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -6492,6 +6700,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="3">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -6515,6 +6724,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="3">
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -6538,6 +6748,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -6564,6 +6775,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -6587,6 +6799,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -6610,6 +6823,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="3">
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -6633,6 +6847,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="3">
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -6656,6 +6871,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="3">
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -6679,6 +6895,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -6702,6 +6919,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -6728,6 +6946,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="3">
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -6751,6 +6970,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="3">
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -6774,6 +6994,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
+        <f t="shared" ref="A195:A258" si="3" xml:space="preserve"> ROW() - 1</f>
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -6797,6 +7018,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="3">
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -6820,6 +7042,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="3">
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -6843,6 +7066,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="3">
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="C198" s="3" t="s">
@@ -6863,6 +7087,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="3">
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -6883,6 +7108,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="3">
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -6903,6 +7129,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="3">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -6923,6 +7150,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="3">
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -6943,6 +7171,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="3">
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="C203" s="3" t="s">
@@ -6963,6 +7192,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="3">
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -6983,6 +7213,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="3">
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -7003,6 +7234,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="3">
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -7023,6 +7255,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="3">
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="C207" s="3" t="s">
@@ -7043,6 +7276,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="3">
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -7063,6 +7297,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" s="3">
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="C209" s="3" t="s">
@@ -7083,6 +7318,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" s="3">
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="C210" s="3" t="s">
@@ -7103,6 +7339,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" s="3">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -7123,6 +7360,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" s="3">
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="C212" s="3" t="s">
@@ -7143,6 +7381,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" s="3">
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="C213" s="3" t="s">
@@ -7163,6 +7402,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="3">
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="C214" s="3" t="s">
@@ -7183,6 +7423,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="3">
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -7206,6 +7447,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="3">
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -7229,6 +7471,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" s="3">
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -7252,6 +7495,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="3">
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -7275,6 +7519,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" s="3">
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -7298,6 +7543,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" s="3">
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -7321,6 +7567,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" s="3">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -7344,6 +7591,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="3">
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -7367,6 +7615,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" s="3">
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -7390,6 +7639,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" s="3">
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
@@ -7413,6 +7663,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -7436,6 +7687,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="3">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
@@ -7459,6 +7711,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -7482,6 +7735,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -7505,6 +7759,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -7528,6 +7783,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -7551,6 +7807,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -7574,6 +7831,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
@@ -7597,6 +7855,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -7620,6 +7879,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
@@ -7643,6 +7903,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
@@ -7666,6 +7927,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="3">
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
@@ -7689,6 +7951,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
@@ -7715,6 +7978,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="3">
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
@@ -7738,6 +8002,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -7761,6 +8026,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
@@ -7784,6 +8050,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" s="3">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -7807,6 +8074,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242" s="3">
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
@@ -7830,6 +8098,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243" s="3">
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -7853,6 +8122,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" s="3">
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
@@ -7876,6 +8146,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
@@ -7899,6 +8170,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246" s="3">
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
@@ -7925,6 +8197,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247" s="3">
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
@@ -7951,6 +8224,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248" s="3">
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
@@ -7974,6 +8248,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" s="3">
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -7997,6 +8272,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
@@ -8020,6 +8296,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -8043,6 +8320,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" s="3">
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
@@ -8066,6 +8344,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
@@ -8089,6 +8368,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
@@ -8112,6 +8392,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
@@ -8135,6 +8416,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
@@ -8158,6 +8440,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" s="3">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
@@ -8181,6 +8464,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" s="3">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
@@ -8204,6 +8488,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" s="3">
+        <f t="shared" ref="A259:A322" si="4" xml:space="preserve"> ROW() - 1</f>
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
@@ -8227,6 +8512,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" s="3">
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
@@ -8250,6 +8536,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" s="3">
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
@@ -8273,6 +8560,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" s="3">
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
@@ -8296,6 +8584,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" s="3">
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -8319,6 +8608,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" s="3">
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
@@ -8342,6 +8632,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
@@ -8365,6 +8656,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" s="3">
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
@@ -8388,6 +8680,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" s="3">
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -8411,6 +8704,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" s="3">
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
@@ -8434,6 +8728,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" s="3">
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
@@ -8457,6 +8752,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" s="3">
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
@@ -8480,6 +8776,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" s="3">
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -8503,6 +8800,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" s="3">
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
@@ -8526,6 +8824,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" s="3">
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="C273" s="3" t="s">
@@ -8546,6 +8845,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" s="3">
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="C274" s="3" t="s">
@@ -8566,6 +8866,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" s="3">
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="C275" s="3" t="s">
@@ -8586,6 +8887,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" s="3">
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="C276" s="3" t="s">
@@ -8606,6 +8908,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="C277" s="3" t="s">
@@ -8626,6 +8929,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="C278" s="3" t="s">
@@ -8646,6 +8950,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" s="3">
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="C279" s="3" t="s">
@@ -8666,6 +8971,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="C280" s="3" t="s">
@@ -8686,6 +8992,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="C281" s="3" t="s">
@@ -8706,6 +9013,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="C282" s="3" t="s">
@@ -8726,6 +9034,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" s="3">
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="C283" s="3" t="s">
@@ -8746,6 +9055,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" s="3">
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="C284" s="3" t="s">
@@ -8766,6 +9076,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="C285" s="3" t="s">
@@ -8786,6 +9097,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" s="3">
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="C286" s="3" t="s">
@@ -8806,6 +9118,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" s="3">
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -8826,6 +9139,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" s="3">
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
@@ -8849,6 +9163,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" s="3">
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
@@ -8872,6 +9187,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" s="3">
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
@@ -8895,6 +9211,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" s="3">
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
@@ -8918,6 +9235,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" s="3">
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="C292" s="3" t="s">
@@ -8938,6 +9256,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" s="3">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="C293" s="3" t="s">
@@ -8958,6 +9277,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" s="3">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="C294" s="3" t="s">
@@ -8978,6 +9298,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" s="3">
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="C295" s="3" t="s">
@@ -8998,6 +9319,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" s="3">
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="C296" s="3" t="s">
@@ -9018,6 +9340,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="C297" s="3" t="str">
@@ -9039,6 +9362,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" s="3">
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="C298" s="3" t="str">
@@ -9060,6 +9384,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" s="3">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="C299" s="3" t="str">
@@ -9081,10 +9406,11 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" s="3">
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" ref="C300:C302" si="0">$C$296</f>
+        <f t="shared" ref="C300:C302" si="5">$C$296</f>
         <v>Codility</v>
       </c>
       <c r="D300" s="3">
@@ -9102,10 +9428,11 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" s="3">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>Codility</v>
       </c>
       <c r="D301" s="3">
@@ -9123,10 +9450,11 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" s="3">
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>Codility</v>
       </c>
       <c r="D302" s="3">
@@ -9144,6 +9472,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" s="3">
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -9164,6 +9493,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="C304" s="3" t="s">
@@ -9184,6 +9514,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A305" s="3">
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="C305" s="3" t="s">
@@ -9204,6 +9535,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="C306" s="3" t="s">
@@ -9224,6 +9556,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A307" s="3">
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
@@ -9247,6 +9580,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A308" s="3">
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
@@ -9273,6 +9607,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A309" s="3">
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
@@ -9299,6 +9634,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310" s="3">
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
@@ -9325,6 +9661,7 @@
     </row>
     <row r="311" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A311" s="3">
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
@@ -9351,6 +9688,7 @@
     </row>
     <row r="312" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
@@ -9377,6 +9715,7 @@
     </row>
     <row r="313" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A313" s="3">
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
@@ -9403,6 +9742,7 @@
     </row>
     <row r="314" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
@@ -9429,6 +9769,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A315" s="3">
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
@@ -9455,6 +9796,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A316" s="3">
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
@@ -9481,6 +9823,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A317" s="3">
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="C317" s="3" t="s">
@@ -9504,6 +9847,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
@@ -9530,6 +9874,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A319" s="3">
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
@@ -9556,6 +9901,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="C320" s="3" t="s">
@@ -9579,6 +9925,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A321" s="3">
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
@@ -9605,6 +9952,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322" s="3">
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
@@ -9631,6 +9979,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
+        <f t="shared" ref="A323:A369" si="6" xml:space="preserve"> ROW() - 1</f>
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
@@ -9657,6 +10006,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" s="3">
+        <f t="shared" si="6"/>
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
@@ -9683,6 +10033,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
@@ -9709,6 +10060,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
@@ -9735,6 +10087,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
+        <f t="shared" si="6"/>
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
@@ -9761,6 +10114,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A328" s="3">
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
       <c r="C328" s="3" t="s">
@@ -9784,6 +10138,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" s="3">
+        <f t="shared" si="6"/>
         <v>328</v>
       </c>
       <c r="C329" s="3" t="s">
@@ -9807,6 +10162,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" s="3">
+        <f t="shared" si="6"/>
         <v>329</v>
       </c>
       <c r="C330" s="3" t="s">
@@ -9830,6 +10186,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" s="3">
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -9853,6 +10210,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" s="3">
+        <f t="shared" si="6"/>
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
@@ -9879,6 +10237,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" s="3">
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
@@ -9905,6 +10264,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
+        <f t="shared" si="6"/>
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
@@ -9928,6 +10288,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" s="3">
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
@@ -9954,6 +10315,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
@@ -9980,6 +10342,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A337" s="3">
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
@@ -10006,6 +10369,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
+        <f t="shared" si="6"/>
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
@@ -10032,6 +10396,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
+        <f t="shared" si="6"/>
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -10058,6 +10423,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
+        <f t="shared" si="6"/>
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
@@ -10084,6 +10450,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
@@ -10110,6 +10477,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
@@ -10136,143 +10504,326 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A343" s="3">
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="C343" s="3"/>
+      <c r="B343" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D343" s="3">
+        <v>2</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G343" s="4">
+        <v>44535</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
+        <f t="shared" si="6"/>
         <v>343</v>
       </c>
-      <c r="C344" s="3"/>
+      <c r="B344" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D344" s="3">
+        <v>3</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G344" s="4">
+        <v>44535</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A345" s="3">
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
-      <c r="C345" s="3"/>
+      <c r="C345" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A346" s="3">
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
-      <c r="C346" s="3"/>
+      <c r="C346" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A347" s="3">
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
-      <c r="C347" s="3"/>
+      <c r="C347" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C348" s="3"/>
+      <c r="A348" s="3">
+        <f t="shared" si="6"/>
+        <v>347</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C349" s="3"/>
+      <c r="A349" s="3">
+        <f t="shared" si="6"/>
+        <v>348</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C350" s="3"/>
+      <c r="A350" s="3">
+        <f t="shared" si="6"/>
+        <v>349</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C351" s="3"/>
+      <c r="A351" s="3">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C352" s="3"/>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C353" s="3"/>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C354" s="3"/>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="A352" s="3">
+        <f t="shared" si="6"/>
+        <v>351</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A353" s="3">
+        <f t="shared" si="6"/>
+        <v>352</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A354" s="3">
+        <f t="shared" si="6"/>
+        <v>353</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A355" s="3">
+        <f t="shared" si="6"/>
+        <v>354</v>
+      </c>
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A356" s="3">
+        <f t="shared" si="6"/>
+        <v>355</v>
+      </c>
       <c r="C356" s="3"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A357" s="3">
+        <f t="shared" si="6"/>
+        <v>356</v>
+      </c>
       <c r="C357" s="3"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A358" s="3">
+        <f t="shared" si="6"/>
+        <v>357</v>
+      </c>
       <c r="C358" s="3"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A359" s="3">
+        <f t="shared" si="6"/>
+        <v>358</v>
+      </c>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A360" s="3">
+        <f t="shared" si="6"/>
+        <v>359</v>
+      </c>
       <c r="C360" s="3"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A361" s="3">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
       <c r="C361" s="3"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A362" s="3">
+        <f t="shared" si="6"/>
+        <v>361</v>
+      </c>
       <c r="C362" s="3"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A363" s="3">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
       <c r="C363" s="3"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A364" s="3">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A365" s="3">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A366" s="3">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A367" s="3">
+        <f t="shared" si="6"/>
+        <v>366</v>
+      </c>
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A368" s="3">
+        <f t="shared" si="6"/>
+        <v>367</v>
+      </c>
       <c r="C368" s="3"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A369" s="3">
+        <f t="shared" si="6"/>
+        <v>368</v>
+      </c>
       <c r="C369" s="3"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C370" s="3"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C371" s="3"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C372" s="3"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C373" s="3"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C374" s="3"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C375" s="3"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C376" s="3"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C377" s="3"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C379" s="3"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C380" s="3"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C381" s="3"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C382" s="3"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C384" s="3"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E73D4D9-898B-4B38-9684-C3B98919B739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA3F9A-4CC7-42A1-BDEB-BC62BCA0F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="445">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1808,11 +1808,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플로이드-워셜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플로이드-와샬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다단계 칫솔 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2239,7 +2247,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="F345" sqref="F345"/>
+      <selection activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10535,7 +10543,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>422</v>
@@ -10547,7 +10555,7 @@
         <v>422</v>
       </c>
       <c r="F344" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G344" s="4">
         <v>44535</v>
@@ -10561,11 +10569,26 @@
         <f t="shared" si="6"/>
         <v>344</v>
       </c>
+      <c r="B345" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="C345" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D345" s="3">
+        <v>1</v>
+      </c>
       <c r="E345" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G345" s="4">
+        <v>44538</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA3F9A-4CC7-42A1-BDEB-BC62BCA0F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36E8BC-95D5-4B3B-9288-0F853C60B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="449">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1821,6 +1821,22 @@
   </si>
   <si>
     <t>구현?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔틀버스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소팅, 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택, 연결리스트, 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2246,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10596,11 +10612,26 @@
         <f t="shared" si="6"/>
         <v>345</v>
       </c>
+      <c r="B346" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="C346" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D346" s="3">
+        <v>2</v>
+      </c>
       <c r="E346" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G346" s="4">
+        <v>44540</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.45">
@@ -10608,11 +10639,26 @@
         <f t="shared" si="6"/>
         <v>346</v>
       </c>
+      <c r="B347" s="3" t="s">
+        <v>448</v>
+      </c>
       <c r="C347" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D347" s="3">
+        <v>3</v>
+      </c>
       <c r="E347" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G347" s="4">
+        <v>44540</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36E8BC-95D5-4B3B-9288-0F853C60B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9A75D-35DF-4FA6-B9BC-6F2A3D2926CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="454">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1837,6 +1837,26 @@
   </si>
   <si>
     <t>스택, 연결리스트, 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투포인터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석 쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간30분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2263,7 +2283,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+      <selection activeCell="H349" sqref="H349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10666,11 +10686,26 @@
         <f t="shared" si="6"/>
         <v>347</v>
       </c>
+      <c r="B348" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="C348" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D348" s="3">
+        <v>3</v>
+      </c>
       <c r="E348" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G348" s="4">
+        <v>44541</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.45">
@@ -10678,11 +10713,26 @@
         <f t="shared" si="6"/>
         <v>348</v>
       </c>
+      <c r="B349" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="C349" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D349" s="3">
+        <v>3</v>
+      </c>
       <c r="E349" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G349" s="4">
+        <v>44541</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9A75D-35DF-4FA6-B9BC-6F2A3D2926CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635AAA8-977C-475C-926C-8AE2D6D6868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="456">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1857,6 +1857,14 @@
   </si>
   <si>
     <t>1시간30분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금과 은 운반하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2282,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="H349" sqref="H349"/>
+    <sheetView tabSelected="1" topLeftCell="C339" workbookViewId="0">
+      <selection activeCell="H352" sqref="H352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10740,11 +10748,26 @@
         <f t="shared" si="6"/>
         <v>349</v>
       </c>
+      <c r="B350" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C350" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D350" s="3">
+        <v>3</v>
+      </c>
       <c r="E350" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G350" s="4">
+        <v>44542</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.45">
@@ -10752,11 +10775,26 @@
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
+      <c r="B351" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="C351" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D351" s="3">
+        <v>3</v>
+      </c>
       <c r="E351" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G351" s="4">
+        <v>44542</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635AAA8-977C-475C-926C-8AE2D6D6868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8934F8-B41E-4E12-B091-82892641A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="460">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1865,6 +1865,22 @@
   </si>
   <si>
     <t>금과 은 운반하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*n 타일링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중우선순위큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2290,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C339" workbookViewId="0">
-      <selection activeCell="H352" sqref="H352"/>
+    <sheetView tabSelected="1" topLeftCell="C348" workbookViewId="0">
+      <selection activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10802,26 +10818,56 @@
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
+      <c r="B352" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C352" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D352" s="3">
+        <v>1</v>
+      </c>
       <c r="E352" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F352" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G352" s="4">
+        <v>44543</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A353" s="3">
         <f t="shared" si="6"/>
         <v>352</v>
       </c>
+      <c r="B353" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="C353" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D353" s="3">
+        <v>1</v>
+      </c>
       <c r="E353" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F353" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G353" s="4">
+        <v>44543</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A354" s="3">
         <f t="shared" si="6"/>
         <v>353</v>
@@ -10833,98 +10879,98 @@
         <v>422</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A355" s="3">
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A356" s="3">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="C356" s="3"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A357" s="3">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="C357" s="3"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A358" s="3">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="C358" s="3"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A359" s="3">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A360" s="3">
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="C360" s="3"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A361" s="3">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="C361" s="3"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A362" s="3">
         <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="C362" s="3"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A363" s="3">
         <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="C363" s="3"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A364" s="3">
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A365" s="3">
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A366" s="3">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A367" s="3">
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A368" s="3">
         <f t="shared" si="6"/>
         <v>367</v>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8934F8-B41E-4E12-B091-82892641A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481F477-7D32-4BE0-9F42-985037819E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="462">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1881,6 +1881,14 @@
   </si>
   <si>
     <t>28분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자물쇠와 열쇠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2306,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C348" workbookViewId="0">
-      <selection activeCell="F354" sqref="F354"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10579,7 +10587,7 @@
         <v>144</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D343" s="3">
         <v>2</v>
@@ -10606,7 +10614,7 @@
         <v>442</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D344" s="3">
         <v>3</v>
@@ -10633,7 +10641,7 @@
         <v>444</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D345" s="3">
         <v>1</v>
@@ -10660,7 +10668,7 @@
         <v>446</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D346" s="3">
         <v>2</v>
@@ -10687,7 +10695,7 @@
         <v>448</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D347" s="3">
         <v>3</v>
@@ -10714,7 +10722,7 @@
         <v>449</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D348" s="3">
         <v>3</v>
@@ -10741,7 +10749,7 @@
         <v>451</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D349" s="3">
         <v>3</v>
@@ -10768,7 +10776,7 @@
         <v>10</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D350" s="3">
         <v>3</v>
@@ -10795,7 +10803,7 @@
         <v>426</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D351" s="3">
         <v>3</v>
@@ -10822,7 +10830,7 @@
         <v>10</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D352" s="3">
         <v>1</v>
@@ -10849,7 +10857,7 @@
         <v>436</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="D353" s="3">
         <v>1</v>
@@ -10872,11 +10880,26 @@
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
+      <c r="B354" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="C354" s="3" t="s">
-        <v>422</v>
+        <v>240</v>
+      </c>
+      <c r="D354" s="3">
+        <v>2</v>
       </c>
       <c r="E354" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G354" s="4">
+        <v>44544</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.45">
@@ -10884,14 +10907,18 @@
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
-      <c r="C355" s="3"/>
+      <c r="C355" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A356" s="3">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="C356" s="3"/>
+      <c r="C356" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A357" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481F477-7D32-4BE0-9F42-985037819E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2E8FD-258D-4A2B-B746-31F090D60352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="465">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1889,6 +1889,18 @@
   </si>
   <si>
     <t>자물쇠와 열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등굣길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어 변환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2314,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="B354" sqref="B354"/>
+    <sheetView tabSelected="1" topLeftCell="B347" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10907,8 +10919,26 @@
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
+      <c r="B355" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C355" s="3" t="s">
         <v>240</v>
+      </c>
+      <c r="D355" s="3">
+        <v>1</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G355" s="4">
+        <v>44547</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.45">
@@ -10916,8 +10946,26 @@
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
+      <c r="B356" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C356" s="3" t="s">
         <v>240</v>
+      </c>
+      <c r="D356" s="3">
+        <v>1</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G356" s="4">
+        <v>44547</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.45">
@@ -10925,77 +10973,132 @@
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="C357" s="3"/>
+      <c r="C357" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A358" s="3">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
-      <c r="C358" s="3"/>
+      <c r="C358" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A359" s="3">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
-      <c r="C359" s="3"/>
+      <c r="C359" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A360" s="3">
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
-      <c r="C360" s="3"/>
+      <c r="C360" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A361" s="3">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="C361" s="3"/>
+      <c r="C361" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A362" s="3">
         <f t="shared" si="6"/>
         <v>361</v>
       </c>
-      <c r="C362" s="3"/>
+      <c r="C362" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A363" s="3">
         <f t="shared" si="6"/>
         <v>362</v>
       </c>
-      <c r="C363" s="3"/>
+      <c r="C363" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A364" s="3">
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
-      <c r="C364" s="3"/>
+      <c r="C364" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A365" s="3">
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="C365" s="3"/>
+      <c r="C365" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A366" s="3">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="C366" s="3"/>
+      <c r="C366" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A367" s="3">
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
-      <c r="C367" s="3"/>
+      <c r="C367" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A368" s="3">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2E8FD-258D-4A2B-B746-31F090D60352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A41A1A-307E-4677-8C82-2549DC229111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="467">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1901,6 +1901,14 @@
   </si>
   <si>
     <t>단어 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합승 택시 요금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2326,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B347" workbookViewId="0">
-      <selection activeCell="B357" sqref="B357"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="F360" sqref="F360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10973,11 +10981,26 @@
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
+      <c r="B357" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="C357" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D357" s="3">
+        <v>2</v>
+      </c>
       <c r="E357" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G357" s="4">
+        <v>44550</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A41A1A-307E-4677-8C82-2549DC229111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01641A2A-91AD-43E3-94B4-C4A89753381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="469">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1909,6 +1910,14 @@
   </si>
   <si>
     <t>합승 택시 요금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 변형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주로 건설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2334,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="F360" sqref="F360"/>
+    <sheetView tabSelected="1" topLeftCell="C351" workbookViewId="0">
+      <selection activeCell="H358" sqref="H358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11008,11 +11017,26 @@
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
+      <c r="B358" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="C358" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D358" s="3">
+        <v>3</v>
+      </c>
       <c r="E358" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G358" s="4">
+        <v>44551</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01641A2A-91AD-43E3-94B4-C4A89753381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D336A-AA94-4E9B-81A5-6B573DB00E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="473">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1918,6 +1917,22 @@
   </si>
   <si>
     <t>경주로 건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보행자 천국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트앨범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해쉬 + 우선순위큐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2343,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C351" workbookViewId="0">
-      <selection activeCell="H358" sqref="H358"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11044,11 +11059,26 @@
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
+      <c r="B359" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C359" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D359" s="3">
+        <v>3</v>
+      </c>
       <c r="E359" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G359" s="4">
+        <v>44552</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.45">
@@ -11056,11 +11086,26 @@
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
+      <c r="B360" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C360" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D360" s="3">
+        <v>2</v>
+      </c>
       <c r="E360" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G360" s="4">
+        <v>44552</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D336A-AA94-4E9B-81A5-6B573DB00E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECE11EF-4322-4943-9646-2A84D9153964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="476">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1933,6 +1933,18 @@
   </si>
   <si>
     <t>해쉬 + 우선순위큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2358,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView tabSelected="1" topLeftCell="C357" workbookViewId="0">
+      <selection activeCell="G362" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11113,11 +11125,26 @@
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
+      <c r="B361" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="C361" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D361" s="3">
+        <v>2</v>
+      </c>
       <c r="E361" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G361" s="4">
+        <v>44556</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECE11EF-4322-4943-9646-2A84D9153964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D9AB90-6BA4-425E-A96E-C4AAE2C79C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="478">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1945,6 +1945,14 @@
   </si>
   <si>
     <t>여행경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 줍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션 + BFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2370,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C357" workbookViewId="0">
-      <selection activeCell="G362" sqref="G362"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="F364" sqref="F364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11152,11 +11160,26 @@
         <f t="shared" si="6"/>
         <v>361</v>
       </c>
+      <c r="B362" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C362" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D362" s="3">
+        <v>3</v>
+      </c>
       <c r="E362" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G362" s="4">
+        <v>44558</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D9AB90-6BA4-425E-A96E-C4AAE2C79C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89791B-2CA5-4A44-9234-576B3ACF1037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="481">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1953,6 +1953,18 @@
   </si>
   <si>
     <t>시뮬레이션 + BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐 조각 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현/시뮬레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2379,7 +2391,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="F364" sqref="F364"/>
+      <selection activeCell="F365" sqref="F365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11187,11 +11199,23 @@
         <f t="shared" si="6"/>
         <v>362</v>
       </c>
+      <c r="B363" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="C363" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D363" s="3">
+        <v>2</v>
+      </c>
       <c r="E363" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G363" s="4">
+        <v>44561</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.45">
@@ -11199,11 +11223,23 @@
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
+      <c r="B364" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C364" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D364" s="3">
+        <v>3</v>
+      </c>
       <c r="E364" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G364" s="4">
+        <v>44561</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89791B-2CA5-4A44-9234-576B3ACF1037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E76EB3-718C-404A-974B-867C9C2B1A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="482">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1965,6 +1965,10 @@
   </si>
   <si>
     <t>구현/시뮬레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥과 보 설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2391,7 +2395,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="F365" sqref="F365"/>
+      <selection activeCell="A365" sqref="A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11247,11 +11251,26 @@
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
+      <c r="B365" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="C365" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D365" s="3">
+        <v>1</v>
+      </c>
       <c r="E365" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G365" s="4">
+        <v>44562</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E76EB3-718C-404A-974B-867C9C2B1A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5FE60-07E3-4814-8B5C-13E11692F00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="485">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1969,6 +1969,18 @@
   </si>
   <si>
     <t>기둥과 보 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 4분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길 찾기 게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2395,7 +2407,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="A365" sqref="A365"/>
+      <selection activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11278,11 +11290,26 @@
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
+      <c r="B366" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="C366" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D366" s="3">
+        <v>2</v>
+      </c>
       <c r="E366" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G366" s="4">
+        <v>44563</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5FE60-07E3-4814-8B5C-13E11692F00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386167A-72C4-4557-B75E-FA7329E50CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="486">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1981,6 +1981,10 @@
   </si>
   <si>
     <t>길 찾기 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징검다리 건너기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2407,7 +2411,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="G367" sqref="G367"/>
+      <selection activeCell="F368" sqref="F368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11317,11 +11321,26 @@
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
+      <c r="B367" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="C367" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D367" s="3">
+        <v>3</v>
+      </c>
       <c r="E367" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G367" s="4">
+        <v>44565</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386167A-72C4-4557-B75E-FA7329E50CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83872CF-39E2-4EA1-9066-CA4E8E1B57DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="488">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1985,6 +1985,14 @@
   </si>
   <si>
     <t>징검다리 건너기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS + 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 0으로 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2410,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="F368" sqref="F368"/>
+    <sheetView tabSelected="1" topLeftCell="C363" workbookViewId="0">
+      <selection activeCell="H368" sqref="H368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10151,7 +10159,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
-        <f t="shared" ref="A323:A369" si="6" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A323:A381" si="6" xml:space="preserve"> ROW() - 1</f>
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
@@ -11348,58 +11356,187 @@
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="C368" s="3"/>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B368" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D368" s="3">
+        <v>2</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G368" s="4">
+        <v>44566</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369" s="3">
         <f t="shared" si="6"/>
         <v>368</v>
       </c>
-      <c r="C369" s="3"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C370" s="3"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C371" s="3"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C372" s="3"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C373" s="3"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C374" s="3"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C375" s="3"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C376" s="3"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C377" s="3"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C378" s="3"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C379" s="3"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C380" s="3"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C381" s="3"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C382" s="3"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C369" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A370" s="3">
+        <f t="shared" si="6"/>
+        <v>369</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A371" s="3">
+        <f t="shared" si="6"/>
+        <v>370</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A372" s="3">
+        <f t="shared" si="6"/>
+        <v>371</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A373" s="3">
+        <f t="shared" si="6"/>
+        <v>372</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A374" s="3">
+        <f t="shared" si="6"/>
+        <v>373</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A375" s="3">
+        <f t="shared" si="6"/>
+        <v>374</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A376" s="3">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A377" s="3">
+        <f t="shared" si="6"/>
+        <v>376</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A378" s="3">
+        <f t="shared" si="6"/>
+        <v>377</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A379" s="3">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A380" s="3">
+        <f t="shared" si="6"/>
+        <v>379</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A381" s="3">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C382" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C384" s="3"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.45">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83872CF-39E2-4EA1-9066-CA4E8E1B57DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9920FBFE-4996-42D5-B962-AF8380BC9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="493">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1993,6 +1993,26 @@
   </si>
   <si>
     <t>모두 0으로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크루스칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬 연결하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간 32분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순열 + 완탐 + BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 짝 맞추기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2418,23 +2438,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C363" workbookViewId="0">
-      <selection activeCell="H368" sqref="H368"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="G370" sqref="G370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="3"/>
-    <col min="6" max="6" width="45.9140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="3"/>
+    <col min="2" max="2" width="22.296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="3"/>
+    <col min="6" max="6" width="45.8984375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="52.19921875" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2462,7 +2482,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f xml:space="preserve"> ROW() - 1</f>
         <v>1</v>
@@ -2486,7 +2506,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A66" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
@@ -2510,7 +2530,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2534,7 +2554,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2558,7 +2578,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2582,7 +2602,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2606,7 +2626,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2630,7 +2650,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2654,7 +2674,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2678,7 +2698,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2702,7 +2722,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2726,7 +2746,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2750,7 +2770,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2774,7 +2794,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2798,7 +2818,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2822,7 +2842,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2846,7 +2866,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2870,7 +2890,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2894,7 +2914,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2918,7 +2938,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2942,7 +2962,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2966,7 +2986,7 @@
         <v>44192</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2990,7 +3010,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3014,7 +3034,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3038,7 +3058,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3062,7 +3082,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3086,7 +3106,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3110,7 +3130,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3134,7 +3154,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3158,7 +3178,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3182,7 +3202,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3206,7 +3226,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3230,7 +3250,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3254,7 +3274,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3278,7 +3298,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3305,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3332,7 +3352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3356,7 +3376,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3380,7 +3400,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3404,7 +3424,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3428,7 +3448,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3452,7 +3472,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3476,7 +3496,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3500,7 +3520,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3524,7 +3544,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3548,7 +3568,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3572,7 +3592,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3596,7 +3616,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3620,7 +3640,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3644,7 +3664,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3668,7 +3688,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3692,7 +3712,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3716,7 +3736,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3743,7 +3763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3767,7 +3787,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3791,7 +3811,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3815,7 +3835,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3839,7 +3859,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3866,7 +3886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3890,7 +3910,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3914,7 +3934,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3938,7 +3958,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3962,7 +3982,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3986,7 +4006,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4010,7 +4030,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4037,7 +4057,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ref="A67:A130" si="1" xml:space="preserve"> ROW() - 1</f>
         <v>66</v>
@@ -4061,7 +4081,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4085,7 +4105,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4109,7 +4129,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4133,7 +4153,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4157,7 +4177,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4181,7 +4201,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4208,7 +4228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4232,7 +4252,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4256,7 +4276,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4280,7 +4300,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4307,7 +4327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4334,7 +4354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4361,7 +4381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4388,7 +4408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4415,7 +4435,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4442,7 +4462,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4466,7 +4486,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4493,7 +4513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4517,7 +4537,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4541,7 +4561,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4565,7 +4585,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4589,7 +4609,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4613,7 +4633,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4637,7 +4657,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4661,7 +4681,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4685,7 +4705,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4709,7 +4729,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4733,7 +4753,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4757,7 +4777,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4781,7 +4801,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4805,7 +4825,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="68" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4832,7 +4852,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4856,7 +4876,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4880,7 +4900,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4907,7 +4927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4934,7 +4954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4958,7 +4978,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4982,7 +5002,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5006,7 +5026,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5030,7 +5050,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5054,7 +5074,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5078,7 +5098,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5102,7 +5122,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5126,7 +5146,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5150,7 +5170,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5174,7 +5194,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5198,7 +5218,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5222,7 +5242,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5246,7 +5266,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5270,7 +5290,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5297,7 +5317,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5321,7 +5341,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5348,7 +5368,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5372,7 +5392,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5396,7 +5416,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5420,7 +5440,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5447,7 +5467,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5471,7 +5491,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5495,7 +5515,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5519,7 +5539,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5543,7 +5563,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5570,7 +5590,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5597,7 +5617,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5621,7 +5641,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <f t="shared" ref="A131:A194" si="2" xml:space="preserve"> ROW() - 1</f>
         <v>130</v>
@@ -5645,7 +5665,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5669,7 +5689,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5693,7 +5713,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5720,7 +5740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5744,7 +5764,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5768,7 +5788,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5792,7 +5812,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5816,7 +5836,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5840,7 +5860,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5864,7 +5884,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5888,7 +5908,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5912,7 +5932,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5936,7 +5956,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5960,7 +5980,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5984,7 +6004,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -6008,7 +6028,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -6032,7 +6052,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -6056,7 +6076,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -6080,7 +6100,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -6104,7 +6124,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -6128,7 +6148,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -6152,7 +6172,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -6176,7 +6196,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -6200,7 +6220,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -6224,7 +6244,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -6248,7 +6268,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -6272,7 +6292,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -6296,7 +6316,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -6323,7 +6343,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6347,7 +6367,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -6371,7 +6391,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -6398,7 +6418,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -6422,7 +6442,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -6446,7 +6466,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -6470,7 +6490,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -6494,7 +6514,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -6518,7 +6538,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -6542,7 +6562,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="3">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -6566,7 +6586,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -6590,7 +6610,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="3">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -6614,7 +6634,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="3">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6638,7 +6658,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="3">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -6662,7 +6682,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="3">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -6686,7 +6706,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="3">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -6710,7 +6730,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="3">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6734,7 +6754,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="3">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -6758,7 +6778,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="3">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6782,7 +6802,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="3">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6806,7 +6826,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="3">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6830,7 +6850,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="3">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6854,7 +6874,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="3">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6878,7 +6898,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="3">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6902,7 +6922,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="3">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6926,7 +6946,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="3">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6953,7 +6973,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="3">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6977,7 +6997,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="3">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -7001,7 +7021,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="3">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -7025,7 +7045,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="3">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -7049,7 +7069,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="3">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -7073,7 +7093,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="3">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -7097,7 +7117,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="3">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -7124,7 +7144,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="3">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -7148,7 +7168,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="3">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -7172,7 +7192,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="3">
         <f t="shared" ref="A195:A258" si="3" xml:space="preserve"> ROW() - 1</f>
         <v>194</v>
@@ -7196,7 +7216,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="3">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -7220,7 +7240,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="3">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -7244,7 +7264,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="3">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -7265,7 +7285,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="3">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -7286,7 +7306,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="3">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -7307,7 +7327,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -7328,7 +7348,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="3">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -7349,7 +7369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="3">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -7370,7 +7390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="3">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -7391,7 +7411,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="3">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -7412,7 +7432,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206" s="3">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -7433,7 +7453,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="3">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -7454,7 +7474,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="3">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -7475,7 +7495,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="3">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -7496,7 +7516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="3">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -7517,7 +7537,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="3">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -7538,7 +7558,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="3">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -7559,7 +7579,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="3">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -7580,7 +7600,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="3">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -7601,7 +7621,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="3">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -7625,7 +7645,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="3">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -7649,7 +7669,7 @@
         <v>44375</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="3">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -7673,7 +7693,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="3">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -7697,7 +7717,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="3">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -7721,7 +7741,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="3">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -7745,7 +7765,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="3">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -7769,7 +7789,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="3">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -7793,7 +7813,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="3">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -7817,7 +7837,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="3">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -7841,7 +7861,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -7865,7 +7885,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -7889,7 +7909,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="3">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -7913,7 +7933,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="3">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -7937,7 +7957,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -7961,7 +7981,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -7985,7 +8005,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="3">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -8009,7 +8029,7 @@
         <v>44381</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="3">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -8033,7 +8053,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -8057,7 +8077,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -8081,7 +8101,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="3">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -8105,7 +8125,7 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="3">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -8129,7 +8149,7 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="3">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -8156,7 +8176,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="3">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -8180,7 +8200,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="3">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -8204,7 +8224,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="3">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -8228,7 +8248,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="3">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -8252,7 +8272,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="3">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -8276,7 +8296,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="3">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -8300,7 +8320,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="3">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -8324,7 +8344,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="3">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -8348,7 +8368,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="3">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -8375,7 +8395,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="3">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -8402,7 +8422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="3">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -8426,7 +8446,7 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="3">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -8450,7 +8470,7 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="3">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -8474,7 +8494,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="3">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -8498,7 +8518,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="3">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -8522,7 +8542,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="3">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -8546,7 +8566,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="3">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -8570,7 +8590,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="3">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -8594,7 +8614,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="3">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -8618,7 +8638,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A257" s="3">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -8642,7 +8662,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A258" s="3">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -8666,7 +8686,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A259" s="3">
         <f t="shared" ref="A259:A322" si="4" xml:space="preserve"> ROW() - 1</f>
         <v>258</v>
@@ -8690,7 +8710,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A260" s="3">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -8714,7 +8734,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A261" s="3">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -8738,7 +8758,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A262" s="3">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -8762,7 +8782,7 @@
         <v>44401</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A263" s="3">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -8786,7 +8806,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A264" s="3">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -8810,7 +8830,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A265" s="3">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -8834,7 +8854,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A266" s="3">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -8858,7 +8878,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A267" s="3">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -8882,7 +8902,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A268" s="3">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -8906,7 +8926,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A269" s="3">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -8930,7 +8950,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A270" s="3">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -8954,7 +8974,7 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A271" s="3">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -8978,7 +8998,7 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A272" s="3">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -9002,7 +9022,7 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A273" s="3">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -9023,7 +9043,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A274" s="3">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -9044,7 +9064,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A275" s="3">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -9065,7 +9085,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276" s="3">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -9086,7 +9106,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A277" s="3">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -9107,7 +9127,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A278" s="3">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -9128,7 +9148,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A279" s="3">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -9149,7 +9169,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A280" s="3">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -9170,7 +9190,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A281" s="3">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -9191,7 +9211,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A282" s="3">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -9212,7 +9232,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A283" s="3">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -9233,7 +9253,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A284" s="3">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -9254,7 +9274,7 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285" s="3">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -9275,7 +9295,7 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A286" s="3">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -9296,7 +9316,7 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A287" s="3">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -9317,7 +9337,7 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A288" s="3">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -9341,7 +9361,7 @@
         <v>44415</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -9365,7 +9385,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -9389,7 +9409,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" s="3">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -9413,7 +9433,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" s="3">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -9434,7 +9454,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -9455,7 +9475,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -9476,7 +9496,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="3">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -9497,7 +9517,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="3">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -9518,7 +9538,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -9540,7 +9560,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -9562,7 +9582,7 @@
         <v>44421</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="3">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -9584,7 +9604,7 @@
         <v>44422</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="3">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -9606,7 +9626,7 @@
         <v>44422</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -9628,7 +9648,7 @@
         <v>44422</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -9650,7 +9670,7 @@
         <v>44422</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="3">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -9671,7 +9691,7 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="3">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -9692,7 +9712,7 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A305" s="3">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -9713,7 +9733,7 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A306" s="3">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -9734,7 +9754,7 @@
         <v>44429</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A307" s="3">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -9758,7 +9778,7 @@
         <v>44430</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A308" s="3">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -9785,7 +9805,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A309" s="3">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -9812,7 +9832,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A310" s="3">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -9839,7 +9859,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A311" s="3">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -9866,7 +9886,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A312" s="3">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -9893,7 +9913,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A313" s="3">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -9920,7 +9940,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A314" s="3">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -9947,7 +9967,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A315" s="3">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -9974,7 +9994,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A316" s="3">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -10001,7 +10021,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A317" s="3">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -10025,7 +10045,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A318" s="3">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -10052,7 +10072,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A319" s="3">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -10079,7 +10099,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A320" s="3">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -10103,7 +10123,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A321" s="3">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -10130,7 +10150,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A322" s="3">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -10157,7 +10177,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323" s="3">
         <f t="shared" ref="A323:A381" si="6" xml:space="preserve"> ROW() - 1</f>
         <v>322</v>
@@ -10184,7 +10204,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A324" s="3">
         <f t="shared" si="6"/>
         <v>323</v>
@@ -10211,7 +10231,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A325" s="3">
         <f t="shared" si="6"/>
         <v>324</v>
@@ -10238,7 +10258,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A326" s="3">
         <f t="shared" si="6"/>
         <v>325</v>
@@ -10265,7 +10285,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A327" s="3">
         <f t="shared" si="6"/>
         <v>326</v>
@@ -10292,7 +10312,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A328" s="3">
         <f t="shared" si="6"/>
         <v>327</v>
@@ -10316,7 +10336,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A329" s="3">
         <f t="shared" si="6"/>
         <v>328</v>
@@ -10340,7 +10360,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A330" s="3">
         <f t="shared" si="6"/>
         <v>329</v>
@@ -10364,7 +10384,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A331" s="3">
         <f t="shared" si="6"/>
         <v>330</v>
@@ -10388,7 +10408,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A332" s="3">
         <f t="shared" si="6"/>
         <v>331</v>
@@ -10415,7 +10435,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A333" s="3">
         <f t="shared" si="6"/>
         <v>332</v>
@@ -10442,7 +10462,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A334" s="3">
         <f t="shared" si="6"/>
         <v>333</v>
@@ -10466,7 +10486,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A335" s="3">
         <f t="shared" si="6"/>
         <v>334</v>
@@ -10493,7 +10513,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A336" s="3">
         <f t="shared" si="6"/>
         <v>335</v>
@@ -10520,7 +10540,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A337" s="3">
         <f t="shared" si="6"/>
         <v>336</v>
@@ -10547,7 +10567,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A338" s="3">
         <f t="shared" si="6"/>
         <v>337</v>
@@ -10574,7 +10594,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A339" s="3">
         <f t="shared" si="6"/>
         <v>338</v>
@@ -10601,7 +10621,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A340" s="3">
         <f t="shared" si="6"/>
         <v>339</v>
@@ -10628,7 +10648,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A341" s="3">
         <f t="shared" si="6"/>
         <v>340</v>
@@ -10655,7 +10675,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A342" s="3">
         <f t="shared" si="6"/>
         <v>341</v>
@@ -10682,7 +10702,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A343" s="3">
         <f t="shared" si="6"/>
         <v>342</v>
@@ -10709,7 +10729,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A344" s="3">
         <f t="shared" si="6"/>
         <v>343</v>
@@ -10736,7 +10756,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A345" s="3">
         <f t="shared" si="6"/>
         <v>344</v>
@@ -10763,7 +10783,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A346" s="3">
         <f t="shared" si="6"/>
         <v>345</v>
@@ -10790,7 +10810,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A347" s="3">
         <f t="shared" si="6"/>
         <v>346</v>
@@ -10817,7 +10837,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A348" s="3">
         <f t="shared" si="6"/>
         <v>347</v>
@@ -10844,7 +10864,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A349" s="3">
         <f t="shared" si="6"/>
         <v>348</v>
@@ -10871,7 +10891,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A350" s="3">
         <f t="shared" si="6"/>
         <v>349</v>
@@ -10898,7 +10918,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A351" s="3">
         <f t="shared" si="6"/>
         <v>350</v>
@@ -10925,7 +10945,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A352" s="3">
         <f t="shared" si="6"/>
         <v>351</v>
@@ -10952,7 +10972,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A353" s="3">
         <f t="shared" si="6"/>
         <v>352</v>
@@ -10979,7 +10999,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A354" s="3">
         <f t="shared" si="6"/>
         <v>353</v>
@@ -11006,7 +11026,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A355" s="3">
         <f t="shared" si="6"/>
         <v>354</v>
@@ -11033,7 +11053,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A356" s="3">
         <f t="shared" si="6"/>
         <v>355</v>
@@ -11060,7 +11080,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A357" s="3">
         <f t="shared" si="6"/>
         <v>356</v>
@@ -11087,7 +11107,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A358" s="3">
         <f t="shared" si="6"/>
         <v>357</v>
@@ -11114,7 +11134,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A359" s="3">
         <f t="shared" si="6"/>
         <v>358</v>
@@ -11141,7 +11161,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A360" s="3">
         <f t="shared" si="6"/>
         <v>359</v>
@@ -11168,7 +11188,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A361" s="3">
         <f t="shared" si="6"/>
         <v>360</v>
@@ -11195,7 +11215,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A362" s="3">
         <f t="shared" si="6"/>
         <v>361</v>
@@ -11222,7 +11242,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A363" s="3">
         <f t="shared" si="6"/>
         <v>362</v>
@@ -11246,7 +11266,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A364" s="3">
         <f t="shared" si="6"/>
         <v>363</v>
@@ -11270,7 +11290,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A365" s="3">
         <f t="shared" si="6"/>
         <v>364</v>
@@ -11297,7 +11317,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A366" s="3">
         <f t="shared" si="6"/>
         <v>365</v>
@@ -11324,7 +11344,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A367" s="3">
         <f t="shared" si="6"/>
         <v>366</v>
@@ -11351,7 +11371,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A368" s="3">
         <f t="shared" si="6"/>
         <v>367</v>
@@ -11378,31 +11398,61 @@
         <v>460</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A369" s="3">
         <f t="shared" si="6"/>
         <v>368</v>
       </c>
+      <c r="B369" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="C369" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D369" s="3">
+        <v>3</v>
+      </c>
       <c r="E369" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F369" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G369" s="4">
+        <v>44568</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A370" s="3">
         <f t="shared" si="6"/>
         <v>369</v>
       </c>
+      <c r="B370" s="3" t="s">
+        <v>491</v>
+      </c>
       <c r="C370" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D370" s="3">
+        <v>2</v>
+      </c>
       <c r="E370" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F370" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G370" s="4">
+        <v>44568</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A371" s="3">
         <f t="shared" si="6"/>
         <v>370</v>
@@ -11414,7 +11464,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A372" s="3">
         <f t="shared" si="6"/>
         <v>371</v>
@@ -11426,7 +11476,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A373" s="3">
         <f t="shared" si="6"/>
         <v>372</v>
@@ -11438,7 +11488,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A374" s="3">
         <f t="shared" si="6"/>
         <v>373</v>
@@ -11450,7 +11500,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A375" s="3">
         <f t="shared" si="6"/>
         <v>374</v>
@@ -11462,7 +11512,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A376" s="3">
         <f t="shared" si="6"/>
         <v>375</v>
@@ -11474,7 +11524,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A377" s="3">
         <f t="shared" si="6"/>
         <v>376</v>
@@ -11486,7 +11536,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A378" s="3">
         <f t="shared" si="6"/>
         <v>377</v>
@@ -11498,7 +11548,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A379" s="3">
         <f t="shared" si="6"/>
         <v>378</v>
@@ -11510,7 +11560,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A380" s="3">
         <f t="shared" si="6"/>
         <v>379</v>
@@ -11519,7 +11569,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A381" s="3">
         <f t="shared" si="6"/>
         <v>380</v>
@@ -11528,1455 +11578,1455 @@
         <v>240</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C382" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C383" s="3"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C384" s="3"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C385" s="3"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C386" s="3"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C387" s="3"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C388" s="3"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C389" s="3"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C390" s="3"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C391" s="3"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C392" s="3"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C393" s="3"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C394" s="3"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C395" s="3"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C396" s="3"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C397" s="3"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C398" s="3"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C399" s="3"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C400" s="3"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C401" s="3"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C402" s="3"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C403" s="3"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C404" s="3"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C405" s="3"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C406" s="3"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C407" s="3"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C408" s="3"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C409" s="3"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C410" s="3"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C411" s="3"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C412" s="3"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C413" s="3"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C414" s="3"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C415" s="3"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C416" s="3"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C417" s="3"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C418" s="3"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C419" s="3"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C420" s="3"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C421" s="3"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C422" s="3"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C423" s="3"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C424" s="3"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C425" s="3"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C426" s="3"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C427" s="3"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C428" s="3"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C429" s="3"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C430" s="3"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C431" s="3"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C432" s="3"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C433" s="3"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C434" s="3"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C435" s="3"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C436" s="3"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C437" s="3"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C438" s="3"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C439" s="3"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C440" s="3"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C441" s="3"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C442" s="3"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C443" s="3"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C444" s="3"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C445" s="3"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C446" s="3"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C447" s="3"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C448" s="3"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C449" s="3"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C450" s="3"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C451" s="3"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C452" s="3"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C453" s="3"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C454" s="3"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C455" s="3"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C456" s="3"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C457" s="3"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C458" s="3"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C459" s="3"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C460" s="3"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C461" s="3"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C462" s="3"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C463" s="3"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C464" s="3"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C465" s="3"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C466" s="3"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C467" s="3"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C468" s="3"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C469" s="3"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C470" s="3"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C471" s="3"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C472" s="3"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C473" s="3"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C474" s="3"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C475" s="3"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C476" s="3"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C477" s="3"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C478" s="3"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C479" s="3"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C480" s="3"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C481" s="3"/>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C482" s="3"/>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C483" s="3"/>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C484" s="3"/>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C485" s="3"/>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C486" s="3"/>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C487" s="3"/>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C488" s="3"/>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C489" s="3"/>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C490" s="3"/>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C491" s="3"/>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C492" s="3"/>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C493" s="3"/>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C494" s="3"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C495" s="3"/>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C496" s="3"/>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C497" s="3"/>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C498" s="3"/>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C499" s="3"/>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C500" s="3"/>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C501" s="3"/>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C502" s="3"/>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C503" s="3"/>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C504" s="3"/>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C505" s="3"/>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C506" s="3"/>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C507" s="3"/>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C508" s="3"/>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C509" s="3"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C510" s="3"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C511" s="3"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C512" s="3"/>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C513" s="3"/>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C514" s="3"/>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C515" s="3"/>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C516" s="3"/>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C517" s="3"/>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C518" s="3"/>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C519" s="3"/>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C520" s="3"/>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C521" s="3"/>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C522" s="3"/>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C523" s="3"/>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C524" s="3"/>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C525" s="3"/>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C526" s="3"/>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C527" s="3"/>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C528" s="3"/>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C529" s="3"/>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C530" s="3"/>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C531" s="3"/>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C532" s="3"/>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C533" s="3"/>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C534" s="3"/>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C535" s="3"/>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C536" s="3"/>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C537" s="3"/>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C538" s="3"/>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C539" s="3"/>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C540" s="3"/>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C541" s="3"/>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C542" s="3"/>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C543" s="3"/>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C544" s="3"/>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C545" s="3"/>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C546" s="3"/>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C547" s="3"/>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C548" s="3"/>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C549" s="3"/>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C550" s="3"/>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C551" s="3"/>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C552" s="3"/>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C553" s="3"/>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C554" s="3"/>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C555" s="3"/>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C556" s="3"/>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C557" s="3"/>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C558" s="3"/>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C559" s="3"/>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C560" s="3"/>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C561" s="3"/>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C562" s="3"/>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C563" s="3"/>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C564" s="3"/>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C565" s="3"/>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C566" s="3"/>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C567" s="3"/>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C568" s="3"/>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C569" s="3"/>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C570" s="3"/>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C571" s="3"/>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C572" s="3"/>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="573" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C573" s="3"/>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="574" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C574" s="3"/>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C575" s="3"/>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C576" s="3"/>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C577" s="3"/>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C578" s="3"/>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C579" s="3"/>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C580" s="3"/>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C581" s="3"/>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C582" s="3"/>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C583" s="3"/>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C584" s="3"/>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C585" s="3"/>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C586" s="3"/>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C587" s="3"/>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C588" s="3"/>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C589" s="3"/>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C590" s="3"/>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C591" s="3"/>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C592" s="3"/>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C593" s="3"/>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C594" s="3"/>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C595" s="3"/>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C596" s="3"/>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C597" s="3"/>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C598" s="3"/>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C599" s="3"/>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C600" s="3"/>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C601" s="3"/>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C602" s="3"/>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C603" s="3"/>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C604" s="3"/>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C605" s="3"/>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C606" s="3"/>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C607" s="3"/>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C608" s="3"/>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C609" s="3"/>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C610" s="3"/>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C611" s="3"/>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C612" s="3"/>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C613" s="3"/>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C614" s="3"/>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="615" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C615" s="3"/>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="616" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C616" s="3"/>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C617" s="3"/>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C618" s="3"/>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C619" s="3"/>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C620" s="3"/>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C621" s="3"/>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C622" s="3"/>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C623" s="3"/>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C624" s="3"/>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C625" s="3"/>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C626" s="3"/>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C627" s="3"/>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C628" s="3"/>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C629" s="3"/>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C630" s="3"/>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C631" s="3"/>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C632" s="3"/>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C633" s="3"/>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C634" s="3"/>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="635" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C635" s="3"/>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="636" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C636" s="3"/>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="637" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C637" s="3"/>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="638" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C638" s="3"/>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C639" s="3"/>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C640" s="3"/>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C641" s="3"/>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C642" s="3"/>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C643" s="3"/>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C644" s="3"/>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C645" s="3"/>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C646" s="3"/>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C647" s="3"/>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C648" s="3"/>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C649" s="3"/>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C650" s="3"/>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C651" s="3"/>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C652" s="3"/>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C653" s="3"/>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C654" s="3"/>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C655" s="3"/>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C656" s="3"/>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C657" s="3"/>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C658" s="3"/>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C659" s="3"/>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C660" s="3"/>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C661" s="3"/>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C662" s="3"/>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C663" s="3"/>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C664" s="3"/>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C665" s="3"/>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C666" s="3"/>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C667" s="3"/>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C668" s="3"/>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C669" s="3"/>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C670" s="3"/>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C671" s="3"/>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C672" s="3"/>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C673" s="3"/>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C674" s="3"/>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C675" s="3"/>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C676" s="3"/>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C677" s="3"/>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C678" s="3"/>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C679" s="3"/>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C680" s="3"/>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C681" s="3"/>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C682" s="3"/>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C683" s="3"/>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C684" s="3"/>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C685" s="3"/>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C686" s="3"/>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C687" s="3"/>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C688" s="3"/>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C689" s="3"/>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C690" s="3"/>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C691" s="3"/>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C692" s="3"/>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C693" s="3"/>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C694" s="3"/>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C695" s="3"/>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C696" s="3"/>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C697" s="3"/>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C698" s="3"/>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C699" s="3"/>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C700" s="3"/>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C701" s="3"/>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C702" s="3"/>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C703" s="3"/>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C704" s="3"/>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C705" s="3"/>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C706" s="3"/>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C707" s="3"/>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C708" s="3"/>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C709" s="3"/>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C710" s="3"/>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C711" s="3"/>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C712" s="3"/>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C713" s="3"/>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C714" s="3"/>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C715" s="3"/>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C716" s="3"/>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C717" s="3"/>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C718" s="3"/>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C719" s="3"/>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C720" s="3"/>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C721" s="3"/>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C722" s="3"/>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C723" s="3"/>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C724" s="3"/>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C725" s="3"/>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C726" s="3"/>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C727" s="3"/>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C728" s="3"/>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C729" s="3"/>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C730" s="3"/>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C731" s="3"/>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C732" s="3"/>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C733" s="3"/>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C734" s="3"/>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C735" s="3"/>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C736" s="3"/>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C737" s="3"/>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C738" s="3"/>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C739" s="3"/>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C740" s="3"/>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C741" s="3"/>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C742" s="3"/>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="743" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C743" s="3"/>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="744" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C744" s="3"/>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C745" s="3"/>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C746" s="3"/>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C747" s="3"/>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C748" s="3"/>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C749" s="3"/>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C750" s="3"/>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C751" s="3"/>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C752" s="3"/>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C753" s="3"/>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C754" s="3"/>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C755" s="3"/>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C756" s="3"/>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C757" s="3"/>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C758" s="3"/>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C759" s="3"/>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C760" s="3"/>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C761" s="3"/>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C762" s="3"/>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="763" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C763" s="3"/>
     </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="764" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C764" s="3"/>
     </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="765" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C765" s="3"/>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="766" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C766" s="3"/>
     </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C767" s="3"/>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C768" s="3"/>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C769" s="3"/>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C770" s="3"/>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C771" s="3"/>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C772" s="3"/>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C773" s="3"/>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C774" s="3"/>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C775" s="3"/>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C776" s="3"/>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C777" s="3"/>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C778" s="3"/>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C779" s="3"/>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C780" s="3"/>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C781" s="3"/>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C782" s="3"/>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C783" s="3"/>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C784" s="3"/>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C785" s="3"/>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C786" s="3"/>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C787" s="3"/>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C788" s="3"/>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C789" s="3"/>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C790" s="3"/>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C791" s="3"/>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C792" s="3"/>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C793" s="3"/>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C794" s="3"/>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C795" s="3"/>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C796" s="3"/>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C797" s="3"/>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C798" s="3"/>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C799" s="3"/>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C800" s="3"/>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C801" s="3"/>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C802" s="3"/>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C803" s="3"/>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C804" s="3"/>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C805" s="3"/>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C806" s="3"/>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="807" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C807" s="3"/>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="808" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C808" s="3"/>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C809" s="3"/>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C810" s="3"/>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C811" s="3"/>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C812" s="3"/>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C813" s="3"/>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C814" s="3"/>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C815" s="3"/>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C816" s="3"/>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C817" s="3"/>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C818" s="3"/>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C819" s="3"/>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C820" s="3"/>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C821" s="3"/>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C822" s="3"/>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C823" s="3"/>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C824" s="3"/>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C825" s="3"/>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C826" s="3"/>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="827" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C827" s="3"/>
     </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="828" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C828" s="3"/>
     </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="829" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C829" s="3"/>
     </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="830" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C830" s="3"/>
     </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C831" s="3"/>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C832" s="3"/>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C833" s="3"/>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C834" s="3"/>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C835" s="3"/>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C836" s="3"/>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C837" s="3"/>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C838" s="3"/>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C839" s="3"/>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C840" s="3"/>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C841" s="3"/>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C842" s="3"/>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C843" s="3"/>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C844" s="3"/>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C845" s="3"/>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C846" s="3"/>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C847" s="3"/>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C848" s="3"/>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C849" s="3"/>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C850" s="3"/>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C851" s="3"/>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C852" s="3"/>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C853" s="3"/>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C854" s="3"/>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C855" s="3"/>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C856" s="3"/>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C857" s="3"/>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C858" s="3"/>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C859" s="3"/>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C860" s="3"/>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C861" s="3"/>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C862" s="3"/>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C863" s="3"/>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C864" s="3"/>
     </row>
   </sheetData>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9920FBFE-4996-42D5-B962-AF8380BC9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37798E5-0806-4888-AA20-A2770709B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="494">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2013,6 +2013,10 @@
   </si>
   <si>
     <t>카드 짝 맞추기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외벽 점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2439,7 +2443,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="G370" sqref="G370"/>
+      <selection activeCell="H371" sqref="H371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11457,11 +11461,26 @@
         <f t="shared" si="6"/>
         <v>370</v>
       </c>
+      <c r="B371" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="C371" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D371" s="3">
+        <v>3</v>
+      </c>
       <c r="E371" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G371" s="4">
+        <v>44569</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37798E5-0806-4888-AA20-A2770709B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B8AC90-D380-479D-941F-009E096FC8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="496">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2017,6 +2017,14 @@
   </si>
   <si>
     <t>외벽 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 27분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매칭 점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2443,7 +2451,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="H371" sqref="H371"/>
+      <selection activeCell="G373" sqref="G373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11488,11 +11496,26 @@
         <f t="shared" si="6"/>
         <v>371</v>
       </c>
+      <c r="B372" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C372" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D372" s="3">
+        <v>2</v>
+      </c>
       <c r="E372" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G372" s="4">
+        <v>44571</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B8AC90-D380-479D-941F-009E096FC8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC51A4-7B1F-450C-9324-D99B597C2D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="497">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2025,6 +2025,10 @@
   </si>
   <si>
     <t>매칭 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 옮기기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2451,7 +2455,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="G373" sqref="G373"/>
+      <selection activeCell="H373" sqref="H373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11523,11 +11527,26 @@
         <f t="shared" si="6"/>
         <v>372</v>
       </c>
+      <c r="B373" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C373" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D373" s="3">
+        <v>3</v>
+      </c>
       <c r="E373" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G373" s="4">
+        <v>44572</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC51A4-7B1F-450C-9324-D99B597C2D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222122EC-F5EC-4D3C-AC74-6C82B23DB81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8916" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="500">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2029,6 +2029,18 @@
   </si>
   <si>
     <t>110 옮기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단속카메라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2454,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="H373" sqref="H373"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="G375" sqref="G375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11554,11 +11566,26 @@
         <f t="shared" si="6"/>
         <v>373</v>
       </c>
+      <c r="B374" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="C374" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D374" s="3">
+        <v>2</v>
+      </c>
       <c r="E374" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G374" s="4">
+        <v>44573</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222122EC-F5EC-4D3C-AC74-6C82B23DB81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97575F-3B01-41E6-85D6-C6A22161697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8916" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="501">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,6 +2041,10 @@
   </si>
   <si>
     <t>단속카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수 홀리 호석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2466,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="G375" sqref="G375"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="E376" sqref="E376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11593,11 +11597,26 @@
         <f t="shared" si="6"/>
         <v>374</v>
       </c>
+      <c r="B375" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="C375" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="D375" s="3">
+        <v>1</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>422</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G375" s="4">
+        <v>44575</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.4">
@@ -11606,7 +11625,7 @@
         <v>375</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>422</v>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E808E9-AAB5-4EA4-AA33-12327B57DC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D706596-97D4-42E4-99E8-B1EE71D86B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="507">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2049,6 +2050,26 @@
   </si>
   <si>
     <t>인구 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수과목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상정렬 DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Craft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2481,7 +2502,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="F379" sqref="F379"/>
+      <selection activeCell="H378" sqref="H378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11732,32 +11753,51 @@
         <f t="shared" si="6"/>
         <v>376</v>
       </c>
-      <c r="B377" s="5"/>
+      <c r="B377" s="5" t="s">
+        <v>502</v>
+      </c>
       <c r="C377" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D377" s="5"/>
-      <c r="E377" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F377" s="5"/>
-      <c r="G377" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="D377" s="5">
+        <v>1</v>
+      </c>
+      <c r="E377" s="5">
+        <v>14567</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G377" s="7">
+        <v>44579</v>
+      </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A378" s="5">
         <f t="shared" si="6"/>
         <v>377</v>
       </c>
-      <c r="B378" s="5"/>
+      <c r="B378" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="C378" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D378" s="5"/>
-      <c r="E378" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F378" s="5"/>
-      <c r="G378" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="D378" s="5">
+        <v>2</v>
+      </c>
+      <c r="E378" s="5">
+        <v>1005</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G378" s="7">
+        <v>44579</v>
+      </c>
+      <c r="H378" s="4" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A379" s="5">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D706596-97D4-42E4-99E8-B1EE71D86B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430A613-4426-42EA-B6C7-2E40032DE539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="511">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2070,6 +2069,22 @@
   </si>
   <si>
     <t>53분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄 세우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위상정렬 + 힙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2502,7 +2517,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="H378" sqref="H378"/>
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11804,30 +11819,54 @@
         <f t="shared" si="6"/>
         <v>378</v>
       </c>
-      <c r="B379" s="5"/>
+      <c r="B379" s="5" t="s">
+        <v>502</v>
+      </c>
       <c r="C379" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D379" s="5"/>
-      <c r="E379" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F379" s="5"/>
-      <c r="G379" s="5"/>
+      <c r="D379" s="5">
+        <v>1</v>
+      </c>
+      <c r="E379" s="5">
+        <v>2252</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G379" s="7">
+        <v>44580</v>
+      </c>
+      <c r="H379" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A380" s="5">
         <f t="shared" si="6"/>
         <v>379</v>
       </c>
-      <c r="B380" s="5"/>
+      <c r="B380" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="C380" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
-      <c r="F380" s="5"/>
-      <c r="G380" s="5"/>
+      <c r="D380" s="5">
+        <v>1</v>
+      </c>
+      <c r="E380" s="5">
+        <v>1766</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G380" s="7">
+        <v>44580</v>
+      </c>
+      <c r="H380" s="4" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A381" s="5">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430A613-4426-42EA-B6C7-2E40032DE539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E3611-78EB-4AF6-8257-6E22244E7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="520">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2085,6 +2085,42 @@
   </si>
   <si>
     <t>위상정렬 + 힙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집합의 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니온파인드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇 조립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 네트워크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2516,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2525,9 +2561,8 @@
     <col min="1" max="1" width="8.69921875" style="2"/>
     <col min="2" max="2" width="22.296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.69921875" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="2"/>
-    <col min="5" max="5" width="8.69921875" style="4"/>
-    <col min="6" max="6" width="45.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="5"/>
+    <col min="6" max="6" width="45.8984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.19921875" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
@@ -7352,7 +7387,6 @@
       <c r="C198" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D198" s="5"/>
       <c r="E198" s="5" t="s">
         <v>242</v>
       </c>
@@ -7375,7 +7409,6 @@
       <c r="C199" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D199" s="5"/>
       <c r="E199" s="5" t="s">
         <v>242</v>
       </c>
@@ -7398,7 +7431,6 @@
       <c r="C200" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D200" s="5"/>
       <c r="E200" s="5" t="s">
         <v>242</v>
       </c>
@@ -7421,7 +7453,6 @@
       <c r="C201" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D201" s="5"/>
       <c r="E201" s="5" t="s">
         <v>242</v>
       </c>
@@ -7444,7 +7475,6 @@
       <c r="C202" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D202" s="5"/>
       <c r="E202" s="5" t="s">
         <v>242</v>
       </c>
@@ -7467,7 +7497,6 @@
       <c r="C203" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D203" s="5"/>
       <c r="E203" s="5" t="s">
         <v>242</v>
       </c>
@@ -7490,7 +7519,6 @@
       <c r="C204" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D204" s="5"/>
       <c r="E204" s="5" t="s">
         <v>242</v>
       </c>
@@ -7513,7 +7541,6 @@
       <c r="C205" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D205" s="5"/>
       <c r="E205" s="5" t="s">
         <v>242</v>
       </c>
@@ -7536,7 +7563,6 @@
       <c r="C206" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D206" s="5"/>
       <c r="E206" s="5" t="s">
         <v>242</v>
       </c>
@@ -7559,7 +7585,6 @@
       <c r="C207" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D207" s="5"/>
       <c r="E207" s="5" t="s">
         <v>242</v>
       </c>
@@ -7582,7 +7607,6 @@
       <c r="C208" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D208" s="5"/>
       <c r="E208" s="5" t="s">
         <v>242</v>
       </c>
@@ -7605,7 +7629,6 @@
       <c r="C209" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D209" s="5"/>
       <c r="E209" s="5" t="s">
         <v>242</v>
       </c>
@@ -7628,7 +7651,6 @@
       <c r="C210" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D210" s="5"/>
       <c r="E210" s="5" t="s">
         <v>242</v>
       </c>
@@ -7651,7 +7673,6 @@
       <c r="C211" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D211" s="5"/>
       <c r="E211" s="5" t="s">
         <v>242</v>
       </c>
@@ -7674,7 +7695,6 @@
       <c r="C212" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D212" s="5"/>
       <c r="E212" s="5" t="s">
         <v>242</v>
       </c>
@@ -7697,7 +7717,6 @@
       <c r="C213" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D213" s="5"/>
       <c r="E213" s="5" t="s">
         <v>242</v>
       </c>
@@ -7720,7 +7739,6 @@
       <c r="C214" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D214" s="5"/>
       <c r="E214" s="5" t="s">
         <v>242</v>
       </c>
@@ -10324,7 +10342,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323" s="5">
-        <f t="shared" ref="A323:A381" si="6" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A323:A386" si="6" xml:space="preserve"> ROW() - 1</f>
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
@@ -11823,7 +11841,7 @@
         <v>502</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D379" s="5">
         <v>1</v>
@@ -11850,7 +11868,7 @@
         <v>510</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D380" s="5">
         <v>1</v>
@@ -11873,78 +11891,207 @@
         <f t="shared" si="6"/>
         <v>380</v>
       </c>
-      <c r="B381" s="5"/>
+      <c r="B381" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="C381" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
-      <c r="F381" s="5"/>
-      <c r="G381" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="D381" s="5">
+        <v>1</v>
+      </c>
+      <c r="E381" s="5">
+        <v>1717</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G381" s="7">
+        <v>44586</v>
+      </c>
+      <c r="H381" s="4" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A382" s="5"/>
-      <c r="B382" s="5"/>
+      <c r="A382" s="5">
+        <f t="shared" si="6"/>
+        <v>381</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="C382" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D382" s="5"/>
-      <c r="E382" s="5"/>
-      <c r="F382" s="5"/>
-      <c r="G382" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="D382" s="5">
+        <v>2</v>
+      </c>
+      <c r="E382" s="5">
+        <v>1976</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G382" s="7">
+        <v>44586</v>
+      </c>
+      <c r="H382" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C383" s="2"/>
+      <c r="A383" s="5">
+        <f t="shared" si="6"/>
+        <v>382</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D383" s="5">
+        <v>1</v>
+      </c>
+      <c r="E383" s="5">
+        <v>16562</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G383" s="7">
+        <v>44586</v>
+      </c>
+      <c r="H383" s="4" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C385" s="2"/>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="A384" s="5">
+        <f t="shared" si="6"/>
+        <v>383</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D384" s="5">
+        <v>1</v>
+      </c>
+      <c r="E384" s="5">
+        <v>18116</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G384" s="7">
+        <v>44586</v>
+      </c>
+      <c r="H384" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A385" s="5">
+        <f t="shared" si="6"/>
+        <v>384</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D385" s="5">
+        <v>2</v>
+      </c>
+      <c r="E385" s="5">
+        <v>4195</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G385" s="7">
+        <v>44586</v>
+      </c>
+      <c r="H385" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A386" s="5">
+        <f t="shared" si="6"/>
+        <v>385</v>
+      </c>
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A387" s="5">
+        <f t="shared" ref="A387:A392" si="7" xml:space="preserve"> ROW() - 1</f>
+        <v>386</v>
+      </c>
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A388" s="5">
+        <f t="shared" si="7"/>
+        <v>387</v>
+      </c>
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A389" s="5">
+        <f t="shared" si="7"/>
+        <v>388</v>
+      </c>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A390" s="5">
+        <f t="shared" si="7"/>
+        <v>389</v>
+      </c>
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A391" s="5">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A392" s="5">
+        <f t="shared" si="7"/>
+        <v>391</v>
+      </c>
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C400" s="2"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E3611-78EB-4AF6-8257-6E22244E7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48278F-5DE1-4E28-A31E-3FB1EB2F1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="528">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2121,6 +2121,38 @@
   </si>
   <si>
     <t>친구 네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디 + 우선순위큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실 배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복 유치원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 회의실 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2205,7 +2237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2235,6 +2267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2552,14 +2587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="H389" sqref="H389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="2"/>
-    <col min="2" max="2" width="22.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.69921875" customWidth="1"/>
     <col min="4" max="5" width="8.69921875" style="5"/>
     <col min="6" max="6" width="45.8984375" style="5" customWidth="1"/>
@@ -7383,7 +7418,6 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
         <v>240</v>
       </c>
@@ -7405,7 +7439,6 @@
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
         <v>240</v>
       </c>
@@ -7427,7 +7460,6 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B200" s="5"/>
       <c r="C200" s="5" t="s">
         <v>240</v>
       </c>
@@ -7449,7 +7481,6 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
         <v>240</v>
       </c>
@@ -7471,7 +7502,6 @@
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="B202" s="5"/>
       <c r="C202" s="5" t="s">
         <v>240</v>
       </c>
@@ -7493,7 +7523,6 @@
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="B203" s="5"/>
       <c r="C203" s="5" t="s">
         <v>240</v>
       </c>
@@ -7515,7 +7544,6 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B204" s="5"/>
       <c r="C204" s="5" t="s">
         <v>240</v>
       </c>
@@ -7537,7 +7565,6 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="B205" s="5"/>
       <c r="C205" s="5" t="s">
         <v>240</v>
       </c>
@@ -7559,7 +7586,6 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="B206" s="5"/>
       <c r="C206" s="5" t="s">
         <v>240</v>
       </c>
@@ -7581,7 +7607,6 @@
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="B207" s="5"/>
       <c r="C207" s="5" t="s">
         <v>240</v>
       </c>
@@ -7603,7 +7628,6 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B208" s="5"/>
       <c r="C208" s="5" t="s">
         <v>240</v>
       </c>
@@ -7625,7 +7649,6 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B209" s="5"/>
       <c r="C209" s="5" t="s">
         <v>240</v>
       </c>
@@ -7647,7 +7670,6 @@
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B210" s="5"/>
       <c r="C210" s="5" t="s">
         <v>240</v>
       </c>
@@ -7669,7 +7691,6 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="B211" s="5"/>
       <c r="C211" s="5" t="s">
         <v>240</v>
       </c>
@@ -7691,7 +7712,6 @@
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="B212" s="5"/>
       <c r="C212" s="5" t="s">
         <v>240</v>
       </c>
@@ -7713,7 +7733,6 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
         <v>240</v>
       </c>
@@ -7735,7 +7754,6 @@
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="B214" s="5"/>
       <c r="C214" s="5" t="s">
         <v>240</v>
       </c>
@@ -9158,7 +9176,6 @@
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="B273" s="5"/>
       <c r="C273" s="5" t="s">
         <v>321</v>
       </c>
@@ -9180,7 +9197,6 @@
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="B274" s="5"/>
       <c r="C274" s="5" t="s">
         <v>321</v>
       </c>
@@ -9202,7 +9218,6 @@
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="B275" s="5"/>
       <c r="C275" s="5" t="s">
         <v>321</v>
       </c>
@@ -9224,7 +9239,6 @@
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
-      <c r="B276" s="5"/>
       <c r="C276" s="5" t="s">
         <v>321</v>
       </c>
@@ -9246,7 +9260,6 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="B277" s="5"/>
       <c r="C277" s="5" t="s">
         <v>321</v>
       </c>
@@ -9268,7 +9281,6 @@
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="B278" s="5"/>
       <c r="C278" s="5" t="s">
         <v>321</v>
       </c>
@@ -9290,7 +9302,6 @@
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="B279" s="5"/>
       <c r="C279" s="5" t="s">
         <v>321</v>
       </c>
@@ -9312,7 +9323,6 @@
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="B280" s="5"/>
       <c r="C280" s="5" t="s">
         <v>321</v>
       </c>
@@ -9334,7 +9344,6 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="B281" s="5"/>
       <c r="C281" s="5" t="s">
         <v>321</v>
       </c>
@@ -9356,7 +9365,6 @@
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="B282" s="5"/>
       <c r="C282" s="5" t="s">
         <v>321</v>
       </c>
@@ -9378,7 +9386,6 @@
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="B283" s="5"/>
       <c r="C283" s="5" t="s">
         <v>321</v>
       </c>
@@ -9400,7 +9407,6 @@
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="B284" s="5"/>
       <c r="C284" s="5" t="s">
         <v>321</v>
       </c>
@@ -9422,7 +9428,6 @@
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="B285" s="5"/>
       <c r="C285" s="5" t="s">
         <v>321</v>
       </c>
@@ -9444,7 +9449,6 @@
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="B286" s="5"/>
       <c r="C286" s="5" t="s">
         <v>321</v>
       </c>
@@ -9466,7 +9470,6 @@
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="B287" s="5"/>
       <c r="C287" s="5" t="s">
         <v>321</v>
       </c>
@@ -9584,7 +9587,6 @@
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="B292" s="5"/>
       <c r="C292" s="5" t="s">
         <v>321</v>
       </c>
@@ -9606,7 +9608,6 @@
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="B293" s="5"/>
       <c r="C293" s="5" t="s">
         <v>321</v>
       </c>
@@ -9628,7 +9629,6 @@
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="B294" s="5"/>
       <c r="C294" s="5" t="s">
         <v>321</v>
       </c>
@@ -9650,7 +9650,6 @@
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="B295" s="5"/>
       <c r="C295" s="5" t="s">
         <v>321</v>
       </c>
@@ -9672,7 +9671,6 @@
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="B296" s="5"/>
       <c r="C296" s="5" t="s">
         <v>321</v>
       </c>
@@ -9694,7 +9692,6 @@
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="B297" s="5"/>
       <c r="C297" s="5" t="str">
         <f>$C$296</f>
         <v>Codility</v>
@@ -9717,7 +9714,6 @@
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="B298" s="5"/>
       <c r="C298" s="5" t="str">
         <f>$C$296</f>
         <v>Codility</v>
@@ -9740,7 +9736,6 @@
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="B299" s="5"/>
       <c r="C299" s="5" t="str">
         <f>$C$296</f>
         <v>Codility</v>
@@ -9763,7 +9758,6 @@
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="B300" s="5"/>
       <c r="C300" s="5" t="str">
         <f t="shared" ref="C300:C302" si="5">$C$296</f>
         <v>Codility</v>
@@ -9786,7 +9780,6 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="B301" s="5"/>
       <c r="C301" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Codility</v>
@@ -9809,7 +9802,6 @@
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="B302" s="5"/>
       <c r="C302" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Codility</v>
@@ -9832,7 +9824,6 @@
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
-      <c r="B303" s="5"/>
       <c r="C303" s="5" t="s">
         <v>240</v>
       </c>
@@ -9854,7 +9845,6 @@
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
-      <c r="B304" s="5"/>
       <c r="C304" s="5" t="s">
         <v>240</v>
       </c>
@@ -9876,7 +9866,6 @@
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
-      <c r="B305" s="5"/>
       <c r="C305" s="5" t="s">
         <v>240</v>
       </c>
@@ -9898,7 +9887,6 @@
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
-      <c r="B306" s="5"/>
       <c r="C306" s="5" t="s">
         <v>240</v>
       </c>
@@ -10187,7 +10175,6 @@
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="B317" s="5"/>
       <c r="C317" s="5" t="s">
         <v>240</v>
       </c>
@@ -10266,7 +10253,6 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="B320" s="5"/>
       <c r="C320" s="5" t="s">
         <v>240</v>
       </c>
@@ -10480,7 +10466,6 @@
         <f t="shared" si="6"/>
         <v>327</v>
       </c>
-      <c r="B328" s="5"/>
       <c r="C328" s="5" t="s">
         <v>240</v>
       </c>
@@ -10505,7 +10490,6 @@
         <f t="shared" si="6"/>
         <v>328</v>
       </c>
-      <c r="B329" s="5"/>
       <c r="C329" s="5" t="s">
         <v>240</v>
       </c>
@@ -10530,7 +10514,6 @@
         <f t="shared" si="6"/>
         <v>329</v>
       </c>
-      <c r="B330" s="5"/>
       <c r="C330" s="5" t="s">
         <v>240</v>
       </c>
@@ -10555,7 +10538,6 @@
         <f t="shared" si="6"/>
         <v>330</v>
       </c>
-      <c r="B331" s="5"/>
       <c r="C331" s="5" t="s">
         <v>240</v>
       </c>
@@ -12026,120 +12008,262 @@
         <f t="shared" si="6"/>
         <v>385</v>
       </c>
-      <c r="C386" s="2"/>
+      <c r="B386" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D386" s="5">
+        <v>3</v>
+      </c>
+      <c r="E386" s="5">
+        <v>11000</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G386" s="10">
+        <v>44606</v>
+      </c>
+      <c r="H386" s="4" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A387" s="5">
-        <f t="shared" ref="A387:A392" si="7" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A387:A402" si="7" xml:space="preserve"> ROW() - 1</f>
         <v>386</v>
       </c>
-      <c r="C387" s="2"/>
+      <c r="B387" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D387" s="5">
+        <v>3</v>
+      </c>
+      <c r="E387" s="5">
+        <v>13164</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G387" s="10">
+        <v>44606</v>
+      </c>
+      <c r="H387" s="4" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A388" s="5">
         <f t="shared" si="7"/>
         <v>387</v>
       </c>
-      <c r="C388" s="2"/>
+      <c r="B388" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D388" s="5">
+        <v>1</v>
+      </c>
+      <c r="E388" s="5">
+        <v>19598</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G388" s="10">
+        <v>44606</v>
+      </c>
+      <c r="H388" s="4" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A389" s="5">
         <f t="shared" si="7"/>
         <v>388</v>
       </c>
-      <c r="C389" s="2"/>
+      <c r="B389" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D389" s="5">
+        <v>1</v>
+      </c>
+      <c r="E389" s="5">
+        <v>2212</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G389" s="10">
+        <v>44606</v>
+      </c>
+      <c r="H389" s="4" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A390" s="5">
         <f t="shared" si="7"/>
         <v>389</v>
       </c>
-      <c r="C390" s="2"/>
+      <c r="C390" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A391" s="5">
         <f t="shared" si="7"/>
         <v>390</v>
       </c>
-      <c r="C391" s="2"/>
+      <c r="C391" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A392" s="5">
         <f t="shared" si="7"/>
         <v>391</v>
       </c>
-      <c r="C392" s="2"/>
+      <c r="C392" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C393" s="2"/>
+      <c r="A393" s="5">
+        <f t="shared" si="7"/>
+        <v>392</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C394" s="2"/>
+      <c r="A394" s="5">
+        <f t="shared" si="7"/>
+        <v>393</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C395" s="2"/>
+      <c r="A395" s="5">
+        <f t="shared" si="7"/>
+        <v>394</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C396" s="2"/>
+      <c r="A396" s="5">
+        <f t="shared" si="7"/>
+        <v>395</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C397" s="2"/>
+      <c r="A397" s="5">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C398" s="2"/>
+      <c r="A398" s="5">
+        <f t="shared" si="7"/>
+        <v>397</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C399" s="2"/>
+      <c r="A399" s="5">
+        <f t="shared" si="7"/>
+        <v>398</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C400" s="2"/>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="A400" s="5">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A401" s="5">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A402" s="5">
+        <f t="shared" si="7"/>
+        <v>401</v>
+      </c>
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C416" s="2"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48278F-5DE1-4E28-A31E-3FB1EB2F1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C049172-3A8C-47B4-BD63-B976CDC619A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8916" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="529">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2153,6 +2153,10 @@
   </si>
   <si>
     <t>18분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2587,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="H389" sqref="H389"/>
+    <sheetView tabSelected="1" topLeftCell="D381" workbookViewId="0">
+      <selection activeCell="H390" sqref="H390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12116,8 +12120,26 @@
         <f t="shared" si="7"/>
         <v>389</v>
       </c>
+      <c r="B390" s="5" t="s">
+        <v>498</v>
+      </c>
       <c r="C390" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="D390" s="5">
+        <v>3</v>
+      </c>
+      <c r="E390" s="5">
+        <v>1092</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G390" s="10">
+        <v>44610</v>
+      </c>
+      <c r="H390" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C049172-3A8C-47B4-BD63-B976CDC619A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87283E24-F4AD-4488-A47B-D414B451FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8916" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="531">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2157,6 +2157,14 @@
   </si>
   <si>
     <t>배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디(누적합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우체국</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2591,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D381" workbookViewId="0">
-      <selection activeCell="H390" sqref="H390"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="H391" sqref="H391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12147,8 +12155,23 @@
         <f t="shared" si="7"/>
         <v>390</v>
       </c>
+      <c r="B391" s="5" t="s">
+        <v>529</v>
+      </c>
       <c r="C391" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="D391" s="5">
+        <v>2</v>
+      </c>
+      <c r="E391" s="5">
+        <v>2141</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G391" s="10">
+        <v>44615</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87283E24-F4AD-4488-A47B-D414B451FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FA03BD-25C8-4C50-A08A-FA8DA8BAC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="536">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2165,6 +2165,26 @@
   </si>
   <si>
     <t>우체국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디(스택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크게 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그르디(우선순위큐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 합치기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 정렬하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2599,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="H391" sqref="H391"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="F396" sqref="F396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12179,8 +12199,26 @@
         <f t="shared" si="7"/>
         <v>391</v>
       </c>
+      <c r="B392" s="5" t="s">
+        <v>531</v>
+      </c>
       <c r="C392" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="D392" s="5">
+        <v>1</v>
+      </c>
+      <c r="E392" s="5">
+        <v>2812</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G392" s="10">
+        <v>44618</v>
+      </c>
+      <c r="H392" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.4">
@@ -12188,8 +12226,26 @@
         <f t="shared" si="7"/>
         <v>392</v>
       </c>
+      <c r="B393" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="C393" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="D393" s="5">
+        <v>1</v>
+      </c>
+      <c r="E393" s="5">
+        <v>13975</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G393" s="10">
+        <v>44618</v>
+      </c>
+      <c r="H393" s="4" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.4">
@@ -12197,8 +12253,26 @@
         <f t="shared" si="7"/>
         <v>393</v>
       </c>
+      <c r="B394" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="C394" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="D394" s="5">
+        <v>1</v>
+      </c>
+      <c r="E394" s="5">
+        <v>1715</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G394" s="10">
+        <v>44618</v>
+      </c>
+      <c r="H394" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FA03BD-25C8-4C50-A08A-FA8DA8BAC0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CE1E6-2CCB-47B5-8081-36B75BB2D0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="538">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2176,15 +2176,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그르디(우선순위큐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 합치기3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카드 정렬하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디(우선순위큐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 용액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유기 설치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2619,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="F396" sqref="F396"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="G396" sqref="G396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12227,7 +12235,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>239</v>
@@ -12239,7 +12247,7 @@
         <v>13975</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G393" s="10">
         <v>44618</v>
@@ -12254,7 +12262,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>239</v>
@@ -12266,7 +12274,7 @@
         <v>1715</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G394" s="10">
         <v>44618</v>
@@ -12280,8 +12288,23 @@
         <f t="shared" si="7"/>
         <v>394</v>
       </c>
+      <c r="B395" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="C395" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="D395" s="5">
+        <v>2</v>
+      </c>
+      <c r="E395" s="5">
+        <v>2470</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G395" s="10">
+        <v>44631</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -12289,8 +12312,23 @@
         <f t="shared" si="7"/>
         <v>395</v>
       </c>
+      <c r="B396" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="C396" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="D396" s="5">
+        <v>3</v>
+      </c>
+      <c r="E396" s="5">
+        <v>2110</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G396" s="10">
+        <v>44631</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CE1E6-2CCB-47B5-8081-36B75BB2D0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13A28D-6020-48CF-B1D5-8FC0C12D0279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jun" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="539">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2193,6 +2194,10 @@
   </si>
   <si>
     <t>공유기 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2277,7 +2282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2309,6 +2314,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2627,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="G396" sqref="G396"/>
+    <sheetView topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12332,53 +12349,27 @@
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A397" s="5">
-        <f t="shared" si="7"/>
-        <v>396</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="A397" s="5"/>
+      <c r="C397" s="5"/>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A398" s="5">
-        <f t="shared" si="7"/>
-        <v>397</v>
-      </c>
-      <c r="C398" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="A398" s="5"/>
+      <c r="C398" s="5"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A399" s="5">
-        <f t="shared" si="7"/>
-        <v>398</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="A399" s="5"/>
+      <c r="C399" s="5"/>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A400" s="5">
-        <f t="shared" si="7"/>
-        <v>399</v>
-      </c>
-      <c r="C400" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="A400" s="5"/>
+      <c r="C400" s="5"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A401" s="5">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
+      <c r="A401" s="5"/>
       <c r="C401" s="2"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A402" s="5">
-        <f t="shared" si="7"/>
-        <v>401</v>
-      </c>
+      <c r="A402" s="5"/>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
@@ -13772,4 +13763,195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.796875" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="11">
+        <f xml:space="preserve"> ROW() - 1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2" s="12">
+        <v>44741</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="11">
+        <f t="shared" ref="A3:A10" si="0" xml:space="preserve"> ROW() - 1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="12">
+        <v>44741</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13A28D-6020-48CF-B1D5-8FC0C12D0279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029EFEF6-3F11-497F-A426-EC9BDB86469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="539">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2322,11 +2322,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12089,7 +12089,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A387" s="5">
-        <f t="shared" ref="A387:A402" si="7" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A387:A396" si="7" xml:space="preserve"> ROW() - 1</f>
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
@@ -13770,17 +13770,19 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="14"/>
+    <col min="2" max="2" width="9.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.796875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -13805,7 +13807,7 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13832,7 +13834,7 @@
       <c r="G2" s="12">
         <v>44741</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
@@ -13857,98 +13859,146 @@
       <c r="G3" s="12">
         <v>44741</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="12">
+        <v>44742</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="12">
+        <v>44742</v>
+      </c>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G6" s="12">
+        <v>44742</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G7" s="12">
+        <v>44742</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029EFEF6-3F11-497F-A426-EC9BDB86469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799C8AA-05AC-498E-9EFA-7DB53D16FADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="540">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2198,6 +2198,10 @@
   </si>
   <si>
     <t>level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13767,10 +13771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13966,12 +13970,24 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="12">
+        <v>44746</v>
+      </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -13979,12 +13995,24 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" s="12">
+        <v>44746</v>
+      </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -13993,13 +14021,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799C8AA-05AC-498E-9EFA-7DB53D16FADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C842C0-4C46-4D78-911C-CAE4410810A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="544">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2201,7 +2201,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소팅</t>
+    <t>Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가장 큰 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implmentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burth Force</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2286,7 +2302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2330,6 +2346,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13771,16 +13790,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="14"/>
-    <col min="2" max="2" width="9.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.796875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.59765625" style="14" bestFit="1" customWidth="1"/>
@@ -13821,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>6</v>
+        <v>542</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>240</v>
@@ -13842,11 +13861,11 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A10" si="0" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A3:A22" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
+        <v>542</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>240</v>
@@ -13871,7 +13890,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>434</v>
+        <v>541</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>240</v>
@@ -13896,7 +13915,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>436</v>
+        <v>539</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>240</v>
@@ -13921,7 +13940,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>451</v>
+        <v>543</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>240</v>
@@ -13946,7 +13965,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>240</v>
@@ -13996,7 +14015,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>539</v>
+        <v>403</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>240</v>
@@ -14020,19 +14039,153 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>384</v>
+      </c>
       <c r="C10" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="12">
+        <v>44749</v>
+      </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>240</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="G11" s="15">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="15">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" s="15">
+        <v>44750</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C842C0-4C46-4D78-911C-CAE4410810A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CA1D8-479B-40AE-9E3B-F65A7F7B921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="547">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2218,6 +2218,18 @@
   </si>
   <si>
     <t>Burth Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 체커</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13793,7 +13805,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14139,50 +14151,134 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B14" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G14" s="15">
+        <v>44753</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2493</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="G15" s="15">
+        <v>44753</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14">
+        <v>22942</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="G16" s="15">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1918</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="15">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C18" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C19" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C20" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C21" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -14191,5 +14287,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CA1D8-479B-40AE-9E3B-F65A7F7B921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846199B8-67EB-4B40-8330-E68225737459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="551">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2230,6 +2230,22 @@
   </si>
   <si>
     <t>데이터 체커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중 우선순위 큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 추천 시스템 v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 추천 시스템 v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙값 구하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13804,8 +13820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14247,8 +14263,23 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B18" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="C18" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>7662</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G18" s="15">
+        <v>44754</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -14256,8 +14287,23 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="B19" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="C19" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14">
+        <v>21939</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="G19" s="15">
+        <v>44754</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -14265,8 +14311,23 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="B20" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="C20" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D20" s="14">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14">
+        <v>21944</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="G20" s="15">
+        <v>44756</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -14274,8 +14335,23 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B21" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="C21" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2696</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="G21" s="15">
+        <v>44756</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846199B8-67EB-4B40-8330-E68225737459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6E3EC9-31B5-43EF-B22B-E83774450463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="556">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2246,6 +2246,26 @@
   </si>
   <si>
     <t>중앙값 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binnary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진 검색 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단절점과 단절선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13818,10 +13838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13889,7 +13909,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A22" si="0" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A3:A29" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -14358,6 +14378,120 @@
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1068</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="G22" s="15">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5638</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="G23" s="15">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="14">
+        <v>6416</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="G24" s="15">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>14675</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="G25" s="15">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6E3EC9-31B5-43EF-B22B-E83774450463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07A79F-E490-4EA0-85F8-C166829AB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="556">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13840,8 +13840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14475,23 +14475,95 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="B26" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14">
+        <v>11000</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="15">
+        <v>44772</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B27" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="14">
+        <v>3</v>
+      </c>
+      <c r="E27" s="14">
+        <v>13164</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="G27" s="15">
+        <v>44772</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B28" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>19598</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="15">
+        <v>44772</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2212</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="G29" s="15">
+        <v>44772</v>
       </c>
     </row>
   </sheetData>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07A79F-E490-4EA0-85F8-C166829AB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B535B-F215-4C4C-8BF4-7C5B4C46E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="557">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2266,6 +2266,10 @@
   </si>
   <si>
     <t>단절점과 단절선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13838,10 +13842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13909,7 +13913,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A29" si="0" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A3:A36" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -14564,6 +14568,120 @@
       </c>
       <c r="G29" s="15">
         <v>44772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3</v>
+      </c>
+      <c r="E30" s="14">
+        <v>9084</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="G30" s="15">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3</v>
+      </c>
+      <c r="E31" s="14">
+        <v>12865</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="15">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14">
+        <v>9251</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="15">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="14">
+        <v>2</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2225</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="15">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B535B-F215-4C4C-8BF4-7C5B4C46E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CC5FCA-C2B6-4837-AF61-FF96A950D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="561">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2270,6 +2270,22 @@
   </si>
   <si>
     <t>동전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 합치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹치는 건 싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 짝수 연속한 부분 수열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13842,10 +13858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13913,7 +13929,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A36" si="0" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A3:A43" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -14671,17 +14687,149 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B34" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14">
+        <v>11728</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="G34" s="15">
+        <v>44774</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="B35" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14">
+        <v>21921</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="G35" s="15">
+        <v>44774</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14">
+        <v>20922</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="G36" s="15">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14">
+        <v>22862</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="G37" s="15">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CC5FCA-C2B6-4837-AF61-FF96A950D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5516EA31-DD74-409A-906E-C859C2378DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="563">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2286,6 +2286,14 @@
   </si>
   <si>
     <t>가장 긴 짝수 연속한 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 돌리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13861,7 +13869,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14783,8 +14791,23 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="B38" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="C38" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D38" s="14">
+        <v>2</v>
+      </c>
+      <c r="E38" s="14">
+        <v>20207</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="G38" s="15">
+        <v>44781</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -14792,8 +14815,23 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="B39" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="C39" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14">
+        <v>17276</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="G39" s="15">
+        <v>44781</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5516EA31-DD74-409A-906E-C859C2378DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51D2FE-C52C-47D8-8020-9CC48B721792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="568">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2294,6 +2294,25 @@
   </si>
   <si>
     <t>배열 돌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기차가 어둠을 해치고 은하수를</t>
+  </si>
+  <si>
+    <t>배열 돌리기 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율적인 해킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단지번호붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄버맨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13866,10 +13885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13937,7 +13956,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A43" si="0" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A3:A49" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -14839,8 +14858,23 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="B40" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="C40" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14">
+        <v>15787</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="G40" s="15">
+        <v>44786</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -14848,8 +14882,23 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="B41" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="C41" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14">
+        <v>16926</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="G41" s="15">
+        <v>44786</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -14857,8 +14906,23 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="B42" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="C42" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D42" s="14">
+        <v>2</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1325</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="G42" s="15">
+        <v>44787</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -14866,7 +14930,121 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="B43" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="C43" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2178</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="15">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14">
+        <v>2667</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="G44" s="15">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="14">
+        <v>2</v>
+      </c>
+      <c r="E45" s="14">
+        <v>16918</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="G45" s="15">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C50" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C51" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C52" s="14" t="s">
         <v>239</v>
       </c>
     </row>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51D2FE-C52C-47D8-8020-9CC48B721792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42306A7E-0E3C-4F1C-9B9F-A95B1677FCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="574">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2313,6 +2313,30 @@
   </si>
   <si>
     <t>봄버맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도영이가 만든 맛있는 음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사 상어와 비바라기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미세먼지 안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사 상어와 파이어볼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13885,10 +13909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13956,7 +13980,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A49" si="0" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A3:A59" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -15002,8 +15026,23 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="B46" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="C46" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1</v>
+      </c>
+      <c r="E46" s="14">
+        <v>14620</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="G46" s="15">
+        <v>44792</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -15011,8 +15050,23 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="B47" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="C47" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14">
+        <v>2961</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="G47" s="15">
+        <v>44792</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -15020,31 +15074,711 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="B48" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="C48" s="14" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D48" s="14">
+        <v>1</v>
+      </c>
+      <c r="E48" s="14">
+        <v>15661</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="15">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="B49" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="C49" s="14" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D49" s="14">
+        <v>2</v>
+      </c>
+      <c r="E49" s="14">
+        <v>2615</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="G49" s="15">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>374</v>
+      </c>
       <c r="C50" s="14" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14">
+        <v>16234</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="G50" s="15">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>374</v>
+      </c>
       <c r="C51" s="14" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D51" s="14">
+        <v>1</v>
+      </c>
+      <c r="E51" s="14">
+        <v>21610</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="G51" s="15">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="11">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>374</v>
+      </c>
       <c r="C52" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14">
+        <v>17144</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="G52" s="15">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="14">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14">
+        <v>20056</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G53" s="15">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" s="11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" s="11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" s="11">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" s="11">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C60" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C61" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C62" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C63" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C64" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C65" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C66" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C67" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C68" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C69" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C70" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C71" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C72" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C73" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C74" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C75" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C76" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C77" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C78" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C79" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C80" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C81" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C82" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C83" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C84" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C85" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C86" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C87" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C88" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C89" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C90" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C91" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C92" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C93" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C94" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C95" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C96" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C97" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C98" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C99" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C100" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C101" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C102" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C103" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C104" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C105" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C106" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C107" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C108" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C109" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C110" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C111" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C112" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C113" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C114" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C115" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C116" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C117" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C118" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C119" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C120" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C121" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C122" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C123" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C124" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C125" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C126" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C127" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C128" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C129" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C130" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C131" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C132" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C133" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C134" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C135" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C136" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C137" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C138" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C139" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C140" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C141" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C142" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C143" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C144" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C145" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C146" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C147" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C148" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C149" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C150" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C151" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C152" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C153" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C154" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C155" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C156" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C157" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C158" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C159" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C160" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C161" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C162" s="14" t="s">
         <v>239</v>
       </c>
     </row>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42306A7E-0E3C-4F1C-9B9F-A95B1677FCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7458E72B-74B0-460E-9F72-07E285163A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="577">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2337,6 +2337,18 @@
   </si>
   <si>
     <t>마법사 상어와 파이어볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF문 좀 대신 써줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선분 위의 점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2786,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13911,8 +13923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15218,8 +15230,23 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="B54" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="C54" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" s="14">
+        <v>2512</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="G54" s="15">
+        <v>44803</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -15227,8 +15254,23 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="B55" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="C55" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D55" s="14">
+        <v>1</v>
+      </c>
+      <c r="E55" s="14">
+        <v>19637</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="G55" s="15">
+        <v>44803</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -15236,8 +15278,23 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="B56" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="C56" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2</v>
+      </c>
+      <c r="E56" s="14">
+        <v>11663</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="G56" s="15">
+        <v>44803</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -15245,8 +15302,23 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
+      <c r="B57" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="C57" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D57" s="14">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14">
+        <v>22871</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" s="15">
+        <v>44803</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7458E72B-74B0-460E-9F72-07E285163A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A6E1E-9AE2-4773-B466-D138FE61A819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="579">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2349,6 +2349,14 @@
   </si>
   <si>
     <t>선분 위의 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백트래킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넴모넴모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2798,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="B357" sqref="B357"/>
+    <sheetView topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13924,7 +13932,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13992,7 +14000,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <f t="shared" ref="A3:A59" si="0" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A3:A66" si="0" xml:space="preserve"> ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -15326,8 +15334,23 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
+      <c r="B58" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="C58" s="14" t="s">
         <v>239</v>
+      </c>
+      <c r="D58" s="14">
+        <v>1</v>
+      </c>
+      <c r="E58" s="14">
+        <v>10971</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="15">
+        <v>44805</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -15335,111 +15358,184 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
+      <c r="B59" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="C59" s="14" t="s">
         <v>239</v>
       </c>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14">
+        <v>16987</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G59" s="15">
+        <v>44805</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" s="11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="C60" s="14" t="s">
         <v>239</v>
       </c>
+      <c r="D60" s="14">
+        <v>1</v>
+      </c>
+      <c r="E60" s="14">
+        <v>14712</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="G60" s="15">
+        <v>44805</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="C61" s="14" t="s">
         <v>239</v>
       </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="14">
+        <v>14888</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" s="15">
+        <v>44805</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" s="11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="C62" s="14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63" s="11">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="C63" s="14" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64" s="11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="C64" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="C65" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="C66" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C67" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C68" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C69" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C70" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C71" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C72" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C73" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C74" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C75" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C76" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C77" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C78" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C79" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C80" s="14" t="s">
         <v>239</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A6E1E-9AE2-4773-B466-D138FE61A819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B59610E-3D3F-4121-87F9-870F3C273707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="583">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2357,6 +2357,22 @@
   </si>
   <si>
     <t>넴모넴모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구간 합 구하기 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피아노 체조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수들의 합 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2441,7 +2457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2474,15 +2490,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13932,19 +13939,19 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="14"/>
-    <col min="2" max="2" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.796875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="14"/>
+    <col min="1" max="1" width="8.796875" style="11"/>
+    <col min="2" max="2" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -13996,7 +14003,6 @@
       <c r="G2" s="12">
         <v>44741</v>
       </c>
-      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
@@ -14021,7 +14027,6 @@
       <c r="G3" s="12">
         <v>44741</v>
       </c>
-      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
@@ -14040,13 +14045,12 @@
       <c r="E4" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>365</v>
       </c>
       <c r="G4" s="12">
         <v>44742</v>
       </c>
-      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
@@ -14071,7 +14075,6 @@
       <c r="G5" s="12">
         <v>44742</v>
       </c>
-      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
@@ -14096,7 +14099,6 @@
       <c r="G6" s="12">
         <v>44742</v>
       </c>
-      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
@@ -14121,7 +14123,6 @@
       <c r="G7" s="12">
         <v>44742</v>
       </c>
-      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
@@ -14146,7 +14147,6 @@
       <c r="G8" s="12">
         <v>44746</v>
       </c>
-      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
@@ -14171,7 +14171,6 @@
       <c r="G9" s="12">
         <v>44746</v>
       </c>
-      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
@@ -14196,29 +14195,28 @@
       <c r="G10" s="12">
         <v>44749</v>
       </c>
-      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>403</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>3</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>44750</v>
       </c>
     </row>
@@ -14233,16 +14231,16 @@
       <c r="C12" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>44750</v>
       </c>
     </row>
@@ -14251,25 +14249,25 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>390</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="11">
         <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>44750</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="11" t="s">
         <v>402</v>
       </c>
     </row>
@@ -14278,22 +14276,22 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>2800</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>44753</v>
       </c>
     </row>
@@ -14302,22 +14300,22 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>2493</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="12">
         <v>44753</v>
       </c>
     </row>
@@ -14326,22 +14324,22 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="11">
         <v>3</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>22942</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="12">
         <v>44753</v>
       </c>
     </row>
@@ -14350,22 +14348,22 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>1918</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>44753</v>
       </c>
     </row>
@@ -14374,22 +14372,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>7662</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>44754</v>
       </c>
     </row>
@@ -14398,22 +14396,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="11">
         <v>3</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>21939</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>44754</v>
       </c>
     </row>
@@ -14422,22 +14420,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="11">
         <v>3</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>21944</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="12">
         <v>44756</v>
       </c>
     </row>
@@ -14446,22 +14444,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="11">
         <v>3</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>2696</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <v>44756</v>
       </c>
     </row>
@@ -14470,22 +14468,22 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="C22" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="11">
         <v>2</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>1068</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <v>44761</v>
       </c>
     </row>
@@ -14494,22 +14492,22 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="11">
         <v>2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>5638</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>44769</v>
       </c>
     </row>
@@ -14518,22 +14516,22 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="11">
         <v>2</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>6416</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <v>44769</v>
       </c>
     </row>
@@ -14542,22 +14540,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="C25" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
         <v>14675</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <v>44769</v>
       </c>
     </row>
@@ -14566,22 +14564,22 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="C26" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="11">
         <v>3</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>11000</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="12">
         <v>44772</v>
       </c>
     </row>
@@ -14590,22 +14588,22 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="C27" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="11">
         <v>3</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>13164</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="12">
         <v>44772</v>
       </c>
     </row>
@@ -14614,22 +14612,22 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="C28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
         <v>19598</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="12">
         <v>44772</v>
       </c>
     </row>
@@ -14638,22 +14636,22 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="C29" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="11">
         <v>2</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <v>2212</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="12">
         <v>44772</v>
       </c>
     </row>
@@ -14662,22 +14660,22 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" s="14">
+      <c r="C30" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="11">
         <v>3</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <v>9084</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="12">
         <v>44773</v>
       </c>
     </row>
@@ -14686,22 +14684,22 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="C31" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="11">
         <v>3</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <v>12865</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="12">
         <v>44773</v>
       </c>
     </row>
@@ -14710,22 +14708,22 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="14">
-        <v>1</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="C32" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
         <v>9251</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <v>44773</v>
       </c>
     </row>
@@ -14734,22 +14732,22 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="C33" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="11">
         <v>2</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="11">
         <v>2225</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="12">
         <v>44773</v>
       </c>
     </row>
@@ -14758,22 +14756,22 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="14">
-        <v>1</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="C34" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
         <v>11728</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="12">
         <v>44774</v>
       </c>
     </row>
@@ -14782,22 +14780,22 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" s="14">
-        <v>1</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="C35" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
         <v>21921</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="12">
         <v>44774</v>
       </c>
     </row>
@@ -14806,22 +14804,22 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" s="14">
-        <v>1</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="C36" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
         <v>20922</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="12">
         <v>44774</v>
       </c>
     </row>
@@ -14830,22 +14828,22 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="14">
-        <v>1</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="C37" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11">
         <v>22862</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="12">
         <v>44774</v>
       </c>
     </row>
@@ -14854,22 +14852,22 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="14">
+      <c r="C38" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="11">
         <v>2</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="11">
         <v>20207</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="12">
         <v>44781</v>
       </c>
     </row>
@@ -14878,22 +14876,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="C39" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11">
         <v>17276</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="12">
         <v>44781</v>
       </c>
     </row>
@@ -14902,22 +14900,22 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="C40" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11">
         <v>15787</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="12">
         <v>44786</v>
       </c>
     </row>
@@ -14926,22 +14924,22 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="14">
-        <v>1</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="C41" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11">
         <v>16926</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="12">
         <v>44786</v>
       </c>
     </row>
@@ -14950,22 +14948,22 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="14">
+      <c r="C42" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="11">
         <v>2</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="11">
         <v>1325</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="12">
         <v>44787</v>
       </c>
     </row>
@@ -14974,22 +14972,22 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="14">
-        <v>1</v>
-      </c>
-      <c r="E43" s="14">
+      <c r="C43" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11">
         <v>2178</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="12">
         <v>44787</v>
       </c>
     </row>
@@ -14998,22 +14996,22 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="14">
-        <v>1</v>
-      </c>
-      <c r="E44" s="14">
+      <c r="C44" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
         <v>2667</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="12">
         <v>44787</v>
       </c>
     </row>
@@ -15022,22 +15020,22 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="C45" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="11">
         <v>2</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="11">
         <v>16918</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="12">
         <v>44787</v>
       </c>
     </row>
@@ -15046,22 +15044,22 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="14">
-        <v>1</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="C46" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
         <v>14620</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="12">
         <v>44792</v>
       </c>
     </row>
@@ -15070,22 +15068,22 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="14">
-        <v>1</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="C47" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11">
         <v>2961</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="12">
         <v>44792</v>
       </c>
     </row>
@@ -15094,22 +15092,22 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="14">
-        <v>1</v>
-      </c>
-      <c r="E48" s="14">
+      <c r="C48" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
         <v>15661</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="12">
         <v>44792</v>
       </c>
     </row>
@@ -15118,22 +15116,22 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="14">
+      <c r="C49" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="11">
         <v>2</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="11">
         <v>2615</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="12">
         <v>44792</v>
       </c>
     </row>
@@ -15142,22 +15140,22 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="14">
-        <v>1</v>
-      </c>
-      <c r="E50" s="14">
+      <c r="C50" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11">
         <v>16234</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="12">
         <v>44793</v>
       </c>
     </row>
@@ -15166,22 +15164,22 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D51" s="14">
-        <v>1</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="C51" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11">
         <v>21610</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="12">
         <v>44793</v>
       </c>
     </row>
@@ -15190,22 +15188,22 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="14">
-        <v>1</v>
-      </c>
-      <c r="E52" s="14">
+      <c r="C52" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11">
         <v>17144</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="12">
         <v>44793</v>
       </c>
     </row>
@@ -15214,22 +15212,22 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="14">
+      <c r="C53" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="11">
         <v>2</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="11">
         <v>20056</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="12">
         <v>44793</v>
       </c>
     </row>
@@ -15238,22 +15236,22 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D54" s="14">
-        <v>1</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="C54" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11">
         <v>2512</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="12">
         <v>44803</v>
       </c>
     </row>
@@ -15262,22 +15260,22 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="14">
-        <v>1</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="C55" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11">
         <v>19637</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="12">
         <v>44803</v>
       </c>
     </row>
@@ -15286,22 +15284,22 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D56" s="14">
+      <c r="C56" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="11">
         <v>2</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="11">
         <v>11663</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="12">
         <v>44803</v>
       </c>
     </row>
@@ -15310,22 +15308,22 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D57" s="14">
+      <c r="C57" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="11">
         <v>3</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="11">
         <v>22871</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="12">
         <v>44803</v>
       </c>
     </row>
@@ -15334,22 +15332,22 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" s="14">
-        <v>1</v>
-      </c>
-      <c r="E58" s="14">
+      <c r="C58" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1</v>
+      </c>
+      <c r="E58" s="11">
         <v>10971</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="12">
         <v>44805</v>
       </c>
     </row>
@@ -15358,22 +15356,22 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="14">
-        <v>1</v>
-      </c>
-      <c r="E59" s="14">
+      <c r="C59" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11">
         <v>16987</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="12">
         <v>44805</v>
       </c>
     </row>
@@ -15382,22 +15380,22 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D60" s="14">
-        <v>1</v>
-      </c>
-      <c r="E60" s="14">
+      <c r="C60" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="11">
+        <v>1</v>
+      </c>
+      <c r="E60" s="11">
         <v>14712</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="12">
         <v>44805</v>
       </c>
     </row>
@@ -15406,22 +15404,22 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" s="14">
-        <v>1</v>
-      </c>
-      <c r="E61" s="14">
+      <c r="C61" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="11">
+        <v>1</v>
+      </c>
+      <c r="E61" s="11">
         <v>14888</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="12">
         <v>44805</v>
       </c>
     </row>
@@ -15430,8 +15428,23 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>239</v>
+      <c r="B62" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="11">
+        <v>1</v>
+      </c>
+      <c r="E62" s="11">
+        <v>20438</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="G62" s="12">
+        <v>44809</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -15439,8 +15452,23 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>239</v>
+      <c r="B63" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
+      <c r="E63" s="11">
+        <v>11660</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="G63" s="12">
+        <v>44809</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -15448,505 +15476,535 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B64" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11">
+        <v>21318</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="G64" s="12">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="11">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B65" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="11">
+        <v>3</v>
+      </c>
+      <c r="E65" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G65" s="12">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="11">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C67" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C68" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C69" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C70" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C71" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C74" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C75" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C76" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C77" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C78" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C79" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="14" t="s">
+      <c r="C66" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C67" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C68" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C69" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C70" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C71" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C72" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C73" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C74" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C75" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C76" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C77" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C78" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C79" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C80" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C136" s="14" t="s">
+      <c r="C136" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C140" s="14" t="s">
+      <c r="C140" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C150" s="14" t="s">
+      <c r="C150" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C153" s="14" t="s">
+      <c r="C153" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C156" s="14" t="s">
+      <c r="C156" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C157" s="14" t="s">
+      <c r="C157" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C159" s="14" t="s">
+      <c r="C159" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C160" s="14" t="s">
+      <c r="C160" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C161" s="14" t="s">
+      <c r="C161" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="11" t="s">
         <v>239</v>
       </c>
     </row>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B59610E-3D3F-4121-87F9-870F3C273707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA04A26-1470-4B13-B48D-74BE87317E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="586">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2373,6 +2373,18 @@
   </si>
   <si>
     <t>수들의 합 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듣보잡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13938,8 +13950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15524,46 +15536,138 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="B66" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="D66" s="11">
+        <v>1</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1764</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="G66" s="12">
+        <v>44810</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67" s="11">
+        <f t="shared" ref="A67:A74" si="1" xml:space="preserve"> ROW() - 1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C67" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="D67" s="11">
+        <v>1</v>
+      </c>
+      <c r="E67" s="11">
+        <v>20291</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="G67" s="12">
+        <v>44810</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68" s="11">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C68" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="D68" s="11">
+        <v>1</v>
+      </c>
+      <c r="E68" s="11">
+        <v>17413</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="12">
+        <v>44810</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69" s="11">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C69" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="D69" s="11">
+        <v>3</v>
+      </c>
+      <c r="E69" s="11">
+        <v>17609</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G69" s="12">
+        <v>44810</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70" s="11">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
       <c r="C70" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71" s="11">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
       <c r="C71" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72" s="11">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
       <c r="C72" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73" s="11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
       <c r="C73" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74" s="11">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
       <c r="C74" s="11" t="s">
         <v>239</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA04A26-1470-4B13-B48D-74BE87317E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A8653F-7A0B-4DE2-B4CD-499F4C947547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="591">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2385,6 +2386,26 @@
   </si>
   <si>
     <t>회문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 거리의 도시 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝나지 않는 파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다익스트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최단경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2825,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13950,8 +13971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15632,8 +15653,23 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
+      <c r="B70" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="C70" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11">
+        <v>18352</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G70" s="12">
+        <v>44813</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -15641,8 +15677,23 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
+      <c r="B71" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="C71" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D71" s="11">
+        <v>2</v>
+      </c>
+      <c r="E71" s="11">
+        <v>11403</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="G71" s="12">
+        <v>44813</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -15650,8 +15701,23 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
+      <c r="B72" s="11" t="s">
+        <v>442</v>
+      </c>
       <c r="C72" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11">
+        <v>11265</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="G72" s="12">
+        <v>44813</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
@@ -15659,8 +15725,23 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
+      <c r="B73" s="11" t="s">
+        <v>589</v>
+      </c>
       <c r="C73" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D73" s="11">
+        <v>2</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1753</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="G73" s="12">
+        <v>44813</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A8653F-7A0B-4DE2-B4CD-499F4C947547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB8EA6-5F34-47BF-9CC8-69A3591DD022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="594">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2406,6 +2405,18 @@
   </si>
   <si>
     <t>최단경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호의 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생태학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2846,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
+    <sheetView topLeftCell="A369" workbookViewId="0">
       <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
@@ -13971,8 +13982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15578,7 +15589,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="11">
-        <f t="shared" ref="A67:A74" si="1" xml:space="preserve"> ROW() - 1</f>
+        <f t="shared" ref="A67:A115" si="1" xml:space="preserve"> ROW() - 1</f>
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -15749,276 +15760,470 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
+      <c r="B74" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="C74" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="D74" s="11">
+        <v>3</v>
+      </c>
+      <c r="E74" s="11">
+        <v>2504</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G74" s="12">
+        <v>44814</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75" s="11">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>592</v>
+      </c>
       <c r="C75" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="D75" s="11">
+        <v>1</v>
+      </c>
+      <c r="E75" s="11">
+        <v>4358</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="G75" s="12">
+        <v>44814</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76" s="11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
       <c r="C76" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77" s="11">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
       <c r="C77" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78" s="11">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="C78" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A79" s="11">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
       <c r="C79" s="11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80" s="11">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
       <c r="C80" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="C81" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="11">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
       <c r="C82" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="11">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
       <c r="C83" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="11">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
       <c r="C84" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
       <c r="C85" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="11">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
       <c r="C86" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="11">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
       <c r="C87" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="11">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
       <c r="C88" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="11">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
       <c r="C89" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="11">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
       <c r="C90" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
       <c r="C91" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="11">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
       <c r="C92" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="11">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
       <c r="C93" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="11">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
       <c r="C94" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="11">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
       <c r="C95" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="11">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
       <c r="C96" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="11">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
       <c r="C97" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="11">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
       <c r="C98" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="11">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
       <c r="C99" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="11">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
       <c r="C100" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="C101" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="11">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
       <c r="C102" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="11">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
       <c r="C103" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="11">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
       <c r="C104" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="11">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
       <c r="C105" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="11">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
       <c r="C106" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="11">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
       <c r="C107" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="11">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
       <c r="C108" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="11">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
       <c r="C109" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="11">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
       <c r="C110" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="11">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="C111" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="11">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="C112" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="11">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
       <c r="C113" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="11">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="C114" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="11">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
       <c r="C115" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C116" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C117" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C118" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C119" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C120" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C121" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C122" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C123" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C124" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C125" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C126" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C127" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C128" s="11" t="s">
         <v>239</v>
       </c>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB8EA6-5F34-47BF-9CC8-69A3591DD022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52AF785-FA5B-4C5B-8D01-B2E3A352602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="595">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2417,6 +2417,10 @@
   </si>
   <si>
     <t>생태학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀 따기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13983,7 +13987,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15808,8 +15812,23 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
+      <c r="B76" s="11" t="s">
+        <v>498</v>
+      </c>
       <c r="C76" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D76" s="11">
+        <v>3</v>
+      </c>
+      <c r="E76" s="11">
+        <v>21758</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="G76" s="12">
+        <v>44817</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -15817,8 +15836,23 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
+      <c r="B77" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="C77" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
+      <c r="E77" s="11">
+        <v>9465</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="12">
+        <v>44817</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52AF785-FA5B-4C5B-8D01-B2E3A352602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E23130-E2A3-4D24-9A51-F74CE725F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="595">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13987,7 +13987,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15860,8 +15860,23 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
+      <c r="B78" s="11" t="s">
+        <v>449</v>
+      </c>
       <c r="C78" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D78" s="11">
+        <v>1</v>
+      </c>
+      <c r="E78" s="11">
+        <v>2470</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="G78" s="12">
+        <v>44818</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E23130-E2A3-4D24-9A51-F74CE725F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC44AEF-6B71-4A0C-B729-DB6033639FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="596">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2421,6 +2421,10 @@
   </si>
   <si>
     <t>꿀 따기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수 홀릭 호석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2862,7 +2866,7 @@
   <dimension ref="A1:J864"/>
   <sheetViews>
     <sheetView topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369"/>
+      <selection activeCell="F375" sqref="F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13986,8 +13990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15884,8 +15888,23 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
+      <c r="B79" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="C79" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1</v>
+      </c>
+      <c r="E79" s="11">
+        <v>20164</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="G79" s="12">
+        <v>44821</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC44AEF-6B71-4A0C-B729-DB6033639FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138E0503-402C-4FFF-B838-EE885C9625E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="596">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13991,7 +13991,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15912,8 +15912,23 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
+      <c r="B80" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="C80" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D80" s="11">
+        <v>1</v>
+      </c>
+      <c r="E80" s="11">
+        <v>7576</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="12">
+        <v>44822</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138E0503-402C-4FFF-B838-EE885C9625E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958964C-7322-46A2-98C4-CB8C3BF5517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="597">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2425,6 +2425,10 @@
   </si>
   <si>
     <t>홀수 홀릭 호석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A와 B 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13990,8 +13994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15931,16 +15935,31 @@
         <v>44822</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="11">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="B81" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="C81" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D81" s="11">
+        <v>3</v>
+      </c>
+      <c r="E81" s="11">
+        <v>12919</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="G81" s="12">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="11">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -15949,7 +15968,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="11">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -15958,7 +15977,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="11">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -15967,7 +15986,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="11">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -15976,7 +15995,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="11">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -15985,7 +16004,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="11">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -15994,7 +16013,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="11">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -16003,7 +16022,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="11">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -16012,7 +16031,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="11">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -16021,7 +16040,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="11">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -16030,7 +16049,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="11">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -16039,7 +16058,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="11">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -16048,7 +16067,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="11">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -16057,7 +16076,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="11">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -16066,7 +16085,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="11">
         <f t="shared" si="1"/>
         <v>95</v>

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958964C-7322-46A2-98C4-CB8C3BF5517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B677B4A-C8F8-4F3C-87F5-21A5D738F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="597">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13995,7 +13995,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15964,8 +15964,23 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
+      <c r="B82" s="11" t="s">
+        <v>374</v>
+      </c>
       <c r="C82" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D82" s="11">
+        <v>2</v>
+      </c>
+      <c r="E82" s="11">
+        <v>15685</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" s="12">
+        <v>44832</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B677B4A-C8F8-4F3C-87F5-21A5D738F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8C41B-F172-48C3-9253-E3C0E4A3DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="598">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2429,6 +2429,10 @@
   </si>
   <si>
     <t>A와 B 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13995,7 +13999,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15988,8 +15992,23 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
+      <c r="B83" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C83" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1</v>
+      </c>
+      <c r="E83" s="11">
+        <v>5430</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="G83" s="12">
+        <v>44842</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8C41B-F172-48C3-9253-E3C0E4A3DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FE4B5-9410-464E-8195-120CF7051F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="599">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2433,6 +2433,10 @@
   </si>
   <si>
     <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대값 힙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13999,7 +14003,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16016,8 +16020,23 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="B84" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="C84" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="11">
+        <v>11286</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G84" s="12">
+        <v>44842</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FE4B5-9410-464E-8195-120CF7051F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA16C1-15CE-4A41-A733-E2E017F0BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="599">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2045,10 +2045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홀수 홀리 호석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인구 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2437,6 +2433,10 @@
   </si>
   <si>
     <t>절대값 힙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합이 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2877,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="F375" sqref="F375"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12017,7 +12017,7 @@
         <v>20164</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G375" s="7">
         <v>44575</v>
@@ -12044,7 +12044,7 @@
         <v>16234</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G376" s="7">
         <v>44576</v>
@@ -12059,7 +12059,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>239</v>
@@ -12071,7 +12071,7 @@
         <v>14567</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G377" s="7">
         <v>44579</v>
@@ -12083,7 +12083,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>239</v>
@@ -12095,13 +12095,13 @@
         <v>1005</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G378" s="7">
         <v>44579</v>
       </c>
       <c r="H378" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.4">
@@ -12110,7 +12110,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>239</v>
@@ -12122,7 +12122,7 @@
         <v>2252</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G379" s="7">
         <v>44580</v>
@@ -12137,7 +12137,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>239</v>
@@ -12149,13 +12149,13 @@
         <v>1766</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G380" s="7">
         <v>44580</v>
       </c>
       <c r="H380" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.4">
@@ -12164,7 +12164,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>239</v>
@@ -12176,13 +12176,13 @@
         <v>1717</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G381" s="7">
         <v>44586</v>
       </c>
       <c r="H381" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.4">
@@ -12191,7 +12191,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>239</v>
@@ -12203,7 +12203,7 @@
         <v>1976</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G382" s="7">
         <v>44586</v>
@@ -12218,7 +12218,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>239</v>
@@ -12230,7 +12230,7 @@
         <v>16562</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G383" s="7">
         <v>44586</v>
@@ -12245,7 +12245,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>239</v>
@@ -12257,13 +12257,13 @@
         <v>18116</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G384" s="7">
         <v>44586</v>
       </c>
       <c r="H384" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.4">
@@ -12272,7 +12272,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>239</v>
@@ -12284,13 +12284,13 @@
         <v>4195</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G385" s="7">
         <v>44586</v>
       </c>
       <c r="H385" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.4">
@@ -12299,7 +12299,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>239</v>
@@ -12311,13 +12311,13 @@
         <v>11000</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G386" s="10">
         <v>44606</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.4">
@@ -12338,7 +12338,7 @@
         <v>13164</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G387" s="10">
         <v>44606</v>
@@ -12353,7 +12353,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>239</v>
@@ -12365,13 +12365,13 @@
         <v>19598</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G388" s="10">
         <v>44606</v>
       </c>
       <c r="H388" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.4">
@@ -12392,13 +12392,13 @@
         <v>2212</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G389" s="10">
         <v>44606</v>
       </c>
       <c r="H389" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.4">
@@ -12419,7 +12419,7 @@
         <v>1092</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G390" s="10">
         <v>44610</v>
@@ -12434,7 +12434,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>239</v>
@@ -12446,7 +12446,7 @@
         <v>2141</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G391" s="10">
         <v>44615</v>
@@ -12458,7 +12458,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>239</v>
@@ -12470,7 +12470,7 @@
         <v>2812</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G392" s="10">
         <v>44618</v>
@@ -12485,7 +12485,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>239</v>
@@ -12497,13 +12497,13 @@
         <v>13975</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G393" s="10">
         <v>44618</v>
       </c>
       <c r="H393" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.4">
@@ -12512,7 +12512,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>239</v>
@@ -12524,13 +12524,13 @@
         <v>1715</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G394" s="10">
         <v>44618</v>
       </c>
       <c r="H394" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.4">
@@ -12551,7 +12551,7 @@
         <v>2470</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G395" s="10">
         <v>44631</v>
@@ -12575,7 +12575,7 @@
         <v>2110</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G396" s="10">
         <v>44631</v>
@@ -14003,7 +14003,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14050,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>240</v>
@@ -14059,7 +14059,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>364</v>
@@ -14074,7 +14074,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>240</v>
@@ -14083,7 +14083,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>363</v>
@@ -14098,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>240</v>
@@ -14107,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>365</v>
@@ -14122,7 +14122,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>240</v>
@@ -14131,7 +14131,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>366</v>
@@ -14146,7 +14146,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>240</v>
@@ -14155,7 +14155,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>362</v>
@@ -14179,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>367</v>
@@ -14203,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>371</v>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>376</v>
@@ -14251,7 +14251,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>378</v>
@@ -14275,10 +14275,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G11" s="12">
         <v>44750</v>
@@ -14290,7 +14290,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>240</v>
@@ -14299,7 +14299,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>38</v>
@@ -14323,7 +14323,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>389</v>
@@ -14353,7 +14353,7 @@
         <v>2800</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G14" s="12">
         <v>44753</v>
@@ -14377,7 +14377,7 @@
         <v>2493</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G15" s="12">
         <v>44753</v>
@@ -14401,7 +14401,7 @@
         <v>22942</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G16" s="12">
         <v>44753</v>
@@ -14449,7 +14449,7 @@
         <v>7662</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G18" s="12">
         <v>44754</v>
@@ -14473,7 +14473,7 @@
         <v>21939</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G19" s="12">
         <v>44754</v>
@@ -14497,7 +14497,7 @@
         <v>21944</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G20" s="12">
         <v>44756</v>
@@ -14521,7 +14521,7 @@
         <v>2696</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G21" s="12">
         <v>44756</v>
@@ -14533,7 +14533,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>239</v>
@@ -14557,7 +14557,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>239</v>
@@ -14569,7 +14569,7 @@
         <v>5638</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G23" s="12">
         <v>44769</v>
@@ -14581,7 +14581,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>239</v>
@@ -14593,7 +14593,7 @@
         <v>6416</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G24" s="12">
         <v>44769</v>
@@ -14605,7 +14605,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>239</v>
@@ -14617,7 +14617,7 @@
         <v>14675</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G25" s="12">
         <v>44769</v>
@@ -14641,7 +14641,7 @@
         <v>11000</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G26" s="12">
         <v>44772</v>
@@ -14665,7 +14665,7 @@
         <v>13164</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G27" s="12">
         <v>44772</v>
@@ -14689,7 +14689,7 @@
         <v>19598</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G28" s="12">
         <v>44772</v>
@@ -14713,7 +14713,7 @@
         <v>2212</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G29" s="12">
         <v>44772</v>
@@ -14737,7 +14737,7 @@
         <v>9084</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G30" s="12">
         <v>44773</v>
@@ -14833,7 +14833,7 @@
         <v>11728</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G34" s="12">
         <v>44774</v>
@@ -14857,7 +14857,7 @@
         <v>21921</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G35" s="12">
         <v>44774</v>
@@ -14881,7 +14881,7 @@
         <v>20922</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G36" s="12">
         <v>44774</v>
@@ -14905,7 +14905,7 @@
         <v>22862</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G37" s="12">
         <v>44774</v>
@@ -14929,7 +14929,7 @@
         <v>20207</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G38" s="12">
         <v>44781</v>
@@ -14953,7 +14953,7 @@
         <v>17276</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G39" s="12">
         <v>44781</v>
@@ -14977,7 +14977,7 @@
         <v>15787</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G40" s="12">
         <v>44786</v>
@@ -15001,7 +15001,7 @@
         <v>16926</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G41" s="12">
         <v>44786</v>
@@ -15025,7 +15025,7 @@
         <v>1325</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G42" s="12">
         <v>44787</v>
@@ -15073,7 +15073,7 @@
         <v>2667</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G44" s="12">
         <v>44787</v>
@@ -15097,7 +15097,7 @@
         <v>16918</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G45" s="12">
         <v>44787</v>
@@ -15121,7 +15121,7 @@
         <v>14620</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G46" s="12">
         <v>44792</v>
@@ -15145,7 +15145,7 @@
         <v>2961</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G47" s="12">
         <v>44792</v>
@@ -15193,7 +15193,7 @@
         <v>2615</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G49" s="12">
         <v>44792</v>
@@ -15217,7 +15217,7 @@
         <v>16234</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G50" s="12">
         <v>44793</v>
@@ -15241,7 +15241,7 @@
         <v>21610</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G51" s="12">
         <v>44793</v>
@@ -15265,7 +15265,7 @@
         <v>17144</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G52" s="12">
         <v>44793</v>
@@ -15289,7 +15289,7 @@
         <v>20056</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G53" s="12">
         <v>44793</v>
@@ -15313,7 +15313,7 @@
         <v>2512</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G54" s="12">
         <v>44803</v>
@@ -15337,7 +15337,7 @@
         <v>19637</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G55" s="12">
         <v>44803</v>
@@ -15361,7 +15361,7 @@
         <v>11663</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G56" s="12">
         <v>44803</v>
@@ -15397,7 +15397,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>239</v>
@@ -15421,7 +15421,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>239</v>
@@ -15445,7 +15445,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>239</v>
@@ -15457,7 +15457,7 @@
         <v>14712</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G60" s="12">
         <v>44805</v>
@@ -15469,7 +15469,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>239</v>
@@ -15505,7 +15505,7 @@
         <v>20438</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G62" s="12">
         <v>44809</v>
@@ -15529,7 +15529,7 @@
         <v>11660</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G63" s="12">
         <v>44809</v>
@@ -15553,7 +15553,7 @@
         <v>21318</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G64" s="12">
         <v>44809</v>
@@ -15577,7 +15577,7 @@
         <v>2015</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G65" s="12">
         <v>44809</v>
@@ -15601,7 +15601,7 @@
         <v>1764</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G66" s="12">
         <v>44810</v>
@@ -15625,7 +15625,7 @@
         <v>20291</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G67" s="12">
         <v>44810</v>
@@ -15673,7 +15673,7 @@
         <v>17609</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G69" s="12">
         <v>44810</v>
@@ -15697,7 +15697,7 @@
         <v>18352</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G70" s="12">
         <v>44813</v>
@@ -15721,7 +15721,7 @@
         <v>11403</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G71" s="12">
         <v>44813</v>
@@ -15745,7 +15745,7 @@
         <v>11265</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G72" s="12">
         <v>44813</v>
@@ -15757,7 +15757,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>239</v>
@@ -15769,7 +15769,7 @@
         <v>1753</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G73" s="12">
         <v>44813</v>
@@ -15793,7 +15793,7 @@
         <v>2504</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G74" s="12">
         <v>44814</v>
@@ -15805,7 +15805,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>239</v>
@@ -15817,7 +15817,7 @@
         <v>4358</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G75" s="12">
         <v>44814</v>
@@ -15841,7 +15841,7 @@
         <v>21758</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G76" s="12">
         <v>44817</v>
@@ -15889,7 +15889,7 @@
         <v>2470</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G78" s="12">
         <v>44818</v>
@@ -15913,7 +15913,7 @@
         <v>20164</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G79" s="12">
         <v>44821</v>
@@ -15961,7 +15961,7 @@
         <v>12919</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G81" s="12">
         <v>44831</v>
@@ -16009,7 +16009,7 @@
         <v>5430</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G83" s="12">
         <v>44842</v>
@@ -16033,7 +16033,7 @@
         <v>11286</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G84" s="12">
         <v>44842</v>
@@ -16044,8 +16044,23 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
+      <c r="B85" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="C85" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D85" s="11">
+        <v>3</v>
+      </c>
+      <c r="E85" s="11">
+        <v>5557</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G85" s="12">
+        <v>44849</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
@@ -16053,8 +16068,23 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="B86" s="11" t="s">
+        <v>449</v>
+      </c>
       <c r="C86" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D86" s="11">
+        <v>3</v>
+      </c>
+      <c r="E86" s="11">
+        <v>3151</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G86" s="12">
+        <v>44849</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">

--- a/junheon/Status.xlsx
+++ b/junheon/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\GC_Algorithm_Study\junheon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA16C1-15CE-4A41-A733-E2E017F0BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B68CE-ED0C-447A-B2E0-D3DEA37A7F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAC882FD-80ED-4FED-BC86-1169BB2BEEB8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="599">
   <si>
     <t>난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2877,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A455562-4D3A-4B25-96ED-E97C9A43915F}">
   <dimension ref="A1:J864"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="B397" sqref="B397"/>
+    <sheetView topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14002,8 +14002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CAB40B-76AE-4C13-9A42-7D6E722B261E}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16092,8 +16092,23 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
+      <c r="B87" s="11" t="s">
+        <v>426</v>
+      </c>
       <c r="C87" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="D87" s="11">
+        <v>2</v>
+      </c>
+      <c r="E87" s="11">
+        <v>3079</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G87" s="12">
+        <v>44856</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
@@ -16103,6 +16118,9 @@
       </c>
       <c r="C88" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="G88" s="12">
+        <v>44856</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
